--- a/start/TIN/TIN Telecom.xlsx
+++ b/start/TIN/TIN Telecom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weg365.sharepoint.com/teams/BR-TI-TIN/Alocacao Recursos/TIN - Detalhamento Atividades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D828C04F-A10E-4FAC-9D16-AC4898EEDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C32993-C3A4-4714-9AB8-10E38F8DDDAE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{D828C04F-A10E-4FAC-9D16-AC4898EEDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C512A9E-0AFC-4FF2-88B2-966513FE43A8}"/>
   <bookViews>
-    <workbookView xWindow="-5970" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5970" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1740,18 +1740,8 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7158,249 +7148,249 @@
       </c>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+    <row r="17" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="55">
         <v>2025</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" t="s">
         <v>248</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="19">
         <v>170</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="49">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="49">
         <v>30</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="49">
         <v>120</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J17" s="49">
         <v>20</v>
       </c>
-      <c r="K17" s="86">
-        <v>0</v>
-      </c>
-      <c r="L17" s="86">
-        <v>0</v>
-      </c>
-      <c r="M17" s="86">
-        <v>0</v>
-      </c>
-      <c r="N17" s="86">
-        <v>0</v>
-      </c>
-      <c r="O17" s="86">
-        <v>0</v>
-      </c>
-      <c r="P17" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="86">
-        <v>0</v>
-      </c>
-      <c r="R17" s="86">
-        <v>0</v>
-      </c>
-      <c r="S17" s="86">
-        <v>0</v>
-      </c>
-      <c r="T17" s="82"/>
-    </row>
-    <row r="18" spans="1:20" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="K17" s="49">
+        <v>0</v>
+      </c>
+      <c r="L17" s="49">
+        <v>0</v>
+      </c>
+      <c r="M17" s="49">
+        <v>0</v>
+      </c>
+      <c r="N17" s="49">
+        <v>0</v>
+      </c>
+      <c r="O17" s="49">
+        <v>0</v>
+      </c>
+      <c r="P17" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="49">
+        <v>0</v>
+      </c>
+      <c r="R17" s="49">
+        <v>0</v>
+      </c>
+      <c r="S17" s="49">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="55">
         <v>2025</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="19">
         <v>45</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="49">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="49">
         <v>10</v>
       </c>
-      <c r="I18" s="86">
+      <c r="I18" s="49">
         <v>30</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="49">
         <v>5</v>
       </c>
-      <c r="K18" s="86">
-        <v>0</v>
-      </c>
-      <c r="L18" s="86">
-        <v>0</v>
-      </c>
-      <c r="M18" s="86">
-        <v>0</v>
-      </c>
-      <c r="N18" s="86">
-        <v>0</v>
-      </c>
-      <c r="O18" s="86">
-        <v>0</v>
-      </c>
-      <c r="P18" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="86">
-        <v>0</v>
-      </c>
-      <c r="R18" s="86">
-        <v>0</v>
-      </c>
-      <c r="S18" s="86">
-        <v>0</v>
-      </c>
-      <c r="T18" s="82"/>
-    </row>
-    <row r="19" spans="1:20" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
+      <c r="K18" s="49">
+        <v>0</v>
+      </c>
+      <c r="L18" s="49">
+        <v>0</v>
+      </c>
+      <c r="M18" s="49">
+        <v>0</v>
+      </c>
+      <c r="N18" s="49">
+        <v>0</v>
+      </c>
+      <c r="O18" s="49">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="49">
+        <v>0</v>
+      </c>
+      <c r="R18" s="49">
+        <v>0</v>
+      </c>
+      <c r="S18" s="49">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="55">
         <v>2025</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="19">
         <v>230</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="49">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="49">
         <v>20</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I19" s="49">
         <v>20</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J19" s="49">
         <v>160</v>
       </c>
-      <c r="K19" s="86">
+      <c r="K19" s="49">
         <v>30</v>
       </c>
-      <c r="L19" s="86">
-        <v>0</v>
-      </c>
-      <c r="M19" s="86">
-        <v>0</v>
-      </c>
-      <c r="N19" s="86">
-        <v>0</v>
-      </c>
-      <c r="O19" s="86">
-        <v>0</v>
-      </c>
-      <c r="P19" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="86">
-        <v>0</v>
-      </c>
-      <c r="R19" s="86">
-        <v>0</v>
-      </c>
-      <c r="S19" s="86">
-        <v>0</v>
-      </c>
-      <c r="T19" s="82"/>
-    </row>
-    <row r="20" spans="1:20" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="L19" s="49">
+        <v>0</v>
+      </c>
+      <c r="M19" s="49">
+        <v>0</v>
+      </c>
+      <c r="N19" s="49">
+        <v>0</v>
+      </c>
+      <c r="O19" s="49">
+        <v>0</v>
+      </c>
+      <c r="P19" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="49">
+        <v>0</v>
+      </c>
+      <c r="R19" s="49">
+        <v>0</v>
+      </c>
+      <c r="S19" s="49">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="55">
         <v>2025</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="19">
         <v>70</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="49">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="49">
         <v>10</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="49">
         <v>10</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="49">
         <v>40</v>
       </c>
-      <c r="K20" s="86">
+      <c r="K20" s="49">
         <v>10</v>
       </c>
-      <c r="L20" s="86">
-        <v>0</v>
-      </c>
-      <c r="M20" s="86">
-        <v>0</v>
-      </c>
-      <c r="N20" s="86">
-        <v>0</v>
-      </c>
-      <c r="O20" s="86">
-        <v>0</v>
-      </c>
-      <c r="P20" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="86">
-        <v>0</v>
-      </c>
-      <c r="R20" s="86">
-        <v>0</v>
-      </c>
-      <c r="S20" s="86">
-        <v>0</v>
-      </c>
-      <c r="T20" s="82"/>
+      <c r="L20" s="49">
+        <v>0</v>
+      </c>
+      <c r="M20" s="49">
+        <v>0</v>
+      </c>
+      <c r="N20" s="49">
+        <v>0</v>
+      </c>
+      <c r="O20" s="49">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="49">
+        <v>0</v>
+      </c>
+      <c r="R20" s="49">
+        <v>0</v>
+      </c>
+      <c r="S20" s="49">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -11055,9 +11045,9 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11069,8 +11059,7 @@
     <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="27" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11166,7 +11155,7 @@
       </c>
       <c r="G2" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="H2" s="23">
         <f>H3-H4</f>
@@ -11186,19 +11175,19 @@
       </c>
       <c r="L2" s="59">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M2" s="59">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" s="59">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O2" s="59">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P2" s="59">
         <f t="shared" ref="P2:AA2" si="1">P3-P4</f>
@@ -11331,7 +11320,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="H4" s="24">
         <f>SUM(H5:H31)</f>
@@ -11351,19 +11340,19 @@
       </c>
       <c r="L4" s="60">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M4" s="60">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N4" s="60">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O4" s="60">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="60">
         <f t="shared" si="2"/>
@@ -11416,7 +11405,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="82" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="17"/>
@@ -11430,7 +11419,7 @@
       </c>
       <c r="G5" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H5" s="24">
         <v>27</v>
@@ -11445,7 +11434,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="53">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="53">
         <v>31</v>
@@ -11814,7 +11803,7 @@
       </c>
       <c r="G10" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="25">
         <v>24</v>
@@ -11829,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
         <v>0</v>
@@ -11896,7 +11885,7 @@
       </c>
       <c r="G11" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="25">
         <v>8</v>
@@ -11911,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
         <v>0</v>
@@ -12113,7 +12102,7 @@
       <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="66" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12133,7 +12122,7 @@
       </c>
       <c r="G14" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="5">
@@ -12146,7 +12135,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M14" s="16">
         <v>0</v>
@@ -12513,7 +12502,7 @@
       </c>
       <c r="G19" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -12524,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="16">
         <v>0</v>
@@ -12591,7 +12580,7 @@
       </c>
       <c r="G20" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -12602,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="16">
         <v>0</v>
@@ -12815,7 +12804,7 @@
       </c>
       <c r="G23" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="25">
         <v>8</v>
@@ -12830,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="16">
         <v>0</v>
@@ -12912,13 +12901,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
         <v>8</v>
       </c>
-      <c r="M24" s="16">
+      <c r="N24" s="16">
         <v>4</v>
-      </c>
-      <c r="N24" s="16">
-        <v>0</v>
       </c>
       <c r="O24" s="16">
         <v>0</v>
@@ -12979,7 +12968,7 @@
       </c>
       <c r="G25" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H25" s="25">
         <v>0</v>
@@ -12994,16 +12983,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16">
+        <v>8</v>
+      </c>
+      <c r="O25" s="16">
         <v>2</v>
-      </c>
-      <c r="M25" s="16">
-        <v>0</v>
-      </c>
-      <c r="N25" s="16">
-        <v>0</v>
-      </c>
-      <c r="O25" s="16">
-        <v>0</v>
       </c>
       <c r="P25" s="16">
         <v>0</v>
@@ -13504,7 +13493,7 @@
       <c r="AB31" s="58"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="66" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="33" t="s">
@@ -13521,7 +13510,7 @@
       </c>
       <c r="G32" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="18">
@@ -13534,7 +13523,7 @@
         <v>113</v>
       </c>
       <c r="L32" s="16">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M32" s="16">
         <v>1</v>
@@ -13602,7 +13591,7 @@
       </c>
       <c r="G33" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="5"/>
@@ -13611,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33" s="16">
         <v>4</v>
@@ -13679,7 +13668,7 @@
       </c>
       <c r="G34" s="19">
         <f>SUM(Tabela1456[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="5"/>
@@ -13690,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M34" s="16">
         <v>0</v>
@@ -14184,7 +14173,7 @@
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A25 A28 H31:H34 J31:O31 J46:O46 N32:O32 H35:L35 H6:AA7 V13:AA15 V18:AA20 V22:AA25 V28:AA30 H22:O26 H9:AA12 H8:AB8 H28:O28 V32:AA36 H36:H46">
+  <conditionalFormatting sqref="A22:A25 A28 H31:H34 J31:O31 J46:O46 N32:O32 H35:L35 H6:AA7 V13:AA15 V18:AA20 V22:AA25 V28:AA30 H9:AA12 H8:AB8 H28:O28 V32:AA36 H36:H46 H22:O26">
     <cfRule type="expression" dxfId="529" priority="121">
       <formula>IF($A6="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -15262,10 +15251,10 @@
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B44" sqref="B44"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17137,7 +17126,7 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -26132,6 +26121,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055299C8A5E56DF42BB3A496FAB31A3CA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f48546ee30a9c08b8c56cc99cae99613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="886f8626-7949-4fe5-8403-a629ca357b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da67acbd85d4947d1135fd4f9dd5422" ns2:_="">
     <xsd:import namespace="886f8626-7949-4fe5-8403-a629ca357b95"/>
@@ -26275,18 +26275,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790518B7-6307-4320-A86D-39C8BAC5E03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26304,30 +26317,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{886666a6-a8d2-4604-a002-95b622cb7e18}" enabled="0" method="" siteId="{886666a6-a8d2-4604-a002-95b622cb7e18}" removed="1"/>

--- a/start/TIN/TIN Telecom.xlsx
+++ b/start/TIN/TIN Telecom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weg365.sharepoint.com/teams/BR-TI-TIN/Alocacao Recursos/TIN - Detalhamento Atividades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolidar-planilha-weg\start\TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{D828C04F-A10E-4FAC-9D16-AC4898EEDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C512A9E-0AFC-4FF2-88B2-966513FE43A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A999EB-CC45-4CD2-94CA-D823E972D8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5970" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -20,21 +20,10 @@
     <sheet name="Franke" sheetId="3" r:id="rId5"/>
     <sheet name="Lineu" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="278">
   <si>
     <t>Epic</t>
   </si>
@@ -1503,7 +1492,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1707,14 +1696,8 @@
     <xf numFmtId="4" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1745,168 +1728,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="623">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="553">
     <dxf>
       <font>
         <b/>
@@ -1962,6 +1827,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2205,6 +2112,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2225,13 +2139,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2421,6 +2328,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2529,144 +2457,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3018,6 +2808,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3045,6 +2856,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3092,13 +2910,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3693,6 +3504,1150 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3828,276 +4783,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4230,144 +4915,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4502,573 +5049,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5167,465 +5147,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5641,39 +5162,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T72" totalsRowShown="0" headerRowDxfId="554" dataDxfId="553">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T72" totalsRowShown="0" headerRowDxfId="552" dataDxfId="551">
   <autoFilter ref="A1:T72" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="552"/>
-    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="551"/>
-    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="550"/>
-    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="549"/>
-    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="548"/>
+    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="550"/>
+    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="549"/>
+    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="548"/>
+    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="547"/>
+    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="546"/>
     <tableColumn id="23" xr3:uid="{9B1A6D9E-C9BA-4325-8A98-E15D0B271659}" name="Estimated effort"/>
-    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="547">
+    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="545">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 1" dataDxfId="546"/>
-    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 2" dataDxfId="545"/>
-    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 3" dataDxfId="544"/>
-    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 4" dataDxfId="543"/>
-    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 5" dataDxfId="542"/>
-    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 6" dataDxfId="541"/>
-    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 7" dataDxfId="540"/>
-    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 8" dataDxfId="539"/>
-    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 9" dataDxfId="538"/>
-    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Mês 10" dataDxfId="537"/>
-    <tableColumn id="19" xr3:uid="{F218DD38-629E-4791-ABE3-95A483A34CB6}" name="Mês 11" dataDxfId="536"/>
-    <tableColumn id="18" xr3:uid="{C544D0A3-69E9-4CFE-8CF0-B1537DD691CF}" name="Mês 12" dataDxfId="535"/>
-    <tableColumn id="17" xr3:uid="{881F0B0C-D015-4BA5-B0F3-1688107FB9D3}" name="Nota" dataDxfId="534"/>
+    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 1" dataDxfId="544"/>
+    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 2" dataDxfId="543"/>
+    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 3" dataDxfId="542"/>
+    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 4" dataDxfId="541"/>
+    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 5" dataDxfId="540"/>
+    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 6" dataDxfId="539"/>
+    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 7" dataDxfId="538"/>
+    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 8" dataDxfId="537"/>
+    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 9" dataDxfId="536"/>
+    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Mês 10" dataDxfId="535"/>
+    <tableColumn id="19" xr3:uid="{F218DD38-629E-4791-ABE3-95A483A34CB6}" name="Mês 11" dataDxfId="534"/>
+    <tableColumn id="18" xr3:uid="{C544D0A3-69E9-4CFE-8CF0-B1537DD691CF}" name="Mês 12" dataDxfId="533"/>
+    <tableColumn id="17" xr3:uid="{881F0B0C-D015-4BA5-B0F3-1688107FB9D3}" name="Nota" dataDxfId="532"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CC034A-F4F3-4FD9-BF6E-3CB5B9ED13F3}" name="Tabela1456" displayName="Tabela1456" ref="A1:AB46" totalsRowShown="0" headerRowDxfId="449" dataDxfId="448">
-  <autoFilter ref="A1:AB46" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CC034A-F4F3-4FD9-BF6E-3CB5B9ED13F3}" name="Tabela1456" displayName="Tabela1456" ref="A1:AA46" totalsRowShown="0" headerRowDxfId="531" dataDxfId="530">
+  <autoFilter ref="A1:AA46" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Em andamento"/>
@@ -5682,44 +5203,43 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{103F5DC6-AC2F-4573-B1DA-76ADE103FD95}" name="Epic" dataDxfId="447"/>
-    <tableColumn id="2" xr3:uid="{10D9139A-45D0-4BEC-AD41-403773FD4C83}" name="Ações" dataDxfId="446"/>
-    <tableColumn id="16" xr3:uid="{EA705947-9F22-4B71-BB4F-7C1EF9E96449}" name="Status" dataDxfId="445"/>
-    <tableColumn id="3" xr3:uid="{423DF51E-FA23-4974-8777-438E362422A8}" name="Due Date" dataDxfId="444"/>
-    <tableColumn id="4" xr3:uid="{B16CCEF8-8F40-4D24-8F19-2BAED99ED176}" name="Assignee" dataDxfId="443"/>
-    <tableColumn id="28" xr3:uid="{A5590F9B-A93C-4B22-96C5-F3860FBA58F9}" name="Estimated effort" dataDxfId="442"/>
-    <tableColumn id="5" xr3:uid="{4A5CE1D9-E654-4A7A-829C-B6261AE6A6EA}" name="Planned effort" dataDxfId="441">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{103F5DC6-AC2F-4573-B1DA-76ADE103FD95}" name="Epic" dataDxfId="529"/>
+    <tableColumn id="2" xr3:uid="{10D9139A-45D0-4BEC-AD41-403773FD4C83}" name="Ações" dataDxfId="528"/>
+    <tableColumn id="16" xr3:uid="{EA705947-9F22-4B71-BB4F-7C1EF9E96449}" name="Status" dataDxfId="527"/>
+    <tableColumn id="3" xr3:uid="{423DF51E-FA23-4974-8777-438E362422A8}" name="Due Date" dataDxfId="526"/>
+    <tableColumn id="4" xr3:uid="{B16CCEF8-8F40-4D24-8F19-2BAED99ED176}" name="Assignee" dataDxfId="525"/>
+    <tableColumn id="28" xr3:uid="{A5590F9B-A93C-4B22-96C5-F3860FBA58F9}" name="Estimated effort" dataDxfId="524"/>
+    <tableColumn id="5" xr3:uid="{4A5CE1D9-E654-4A7A-829C-B6261AE6A6EA}" name="Planned effort" dataDxfId="523">
       <calculatedColumnFormula>SUM(Tabela14[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DFA1AA3E-C06A-416C-A994-1BCB67FB80A2}" name="mai/24" dataDxfId="440"/>
-    <tableColumn id="7" xr3:uid="{B9D499B7-D8FE-4D6C-AD84-50FE52DA5B76}" name="jun/24" dataDxfId="439"/>
-    <tableColumn id="8" xr3:uid="{1C81CC09-816D-44A2-AE5B-8DFE0A22956A}" name="jul/24" dataDxfId="438"/>
-    <tableColumn id="9" xr3:uid="{6F561303-E93F-4B24-82F3-A48FD1333F76}" name="ago/24" dataDxfId="437"/>
-    <tableColumn id="10" xr3:uid="{F64B8867-3B58-4861-BCB8-0A9CE4C6C4A6}" name="set/24" dataDxfId="436"/>
-    <tableColumn id="11" xr3:uid="{97ED0AFA-EEAD-4331-A02D-2456C7E32B00}" name="out/24" dataDxfId="435"/>
-    <tableColumn id="12" xr3:uid="{EF2A60BA-1F7A-48B8-A7A5-A4F2BD71D999}" name="nov/24" dataDxfId="434"/>
-    <tableColumn id="13" xr3:uid="{A86E44F8-99F5-4F11-AAF9-0BAD05635525}" name="dez/24" dataDxfId="433"/>
-    <tableColumn id="14" xr3:uid="{815F4872-9634-4E42-BE4F-B63708467CD7}" name="jan/25" dataDxfId="432"/>
-    <tableColumn id="22" xr3:uid="{CFC09A57-BBF4-49BD-B271-6B9DF42401A2}" name="fev/25" dataDxfId="431"/>
-    <tableColumn id="15" xr3:uid="{ADADB421-2C01-4666-81B6-0A2B88CED929}" name="mar/25" dataDxfId="430"/>
-    <tableColumn id="21" xr3:uid="{EF40C496-BC9B-420D-9D3B-F509449CF3E8}" name="abr/25" dataDxfId="429"/>
-    <tableColumn id="20" xr3:uid="{0C37B4D3-F0B4-4589-904B-1C85E0D16F44}" name="mai/25" dataDxfId="428"/>
-    <tableColumn id="19" xr3:uid="{B7F57FA5-5C23-4D7E-A76B-8D109F785E13}" name="jun/25" dataDxfId="427"/>
-    <tableColumn id="18" xr3:uid="{C36741B3-F4C3-4622-AC46-6EA43763152A}" name="jul/25" dataDxfId="426"/>
-    <tableColumn id="23" xr3:uid="{0C37F6FB-A809-4159-8685-603B85641462}" name="ago/25" dataDxfId="425"/>
-    <tableColumn id="24" xr3:uid="{F2DA22F3-DF37-4D98-A9A6-12053E2187A7}" name="set/25" dataDxfId="424"/>
-    <tableColumn id="25" xr3:uid="{6E3B30EC-E547-4671-A931-5D8A77E47533}" name="out/25" dataDxfId="423"/>
-    <tableColumn id="26" xr3:uid="{40B16882-2952-49D7-B6E0-154584D3B67F}" name="nov/25" dataDxfId="422"/>
-    <tableColumn id="27" xr3:uid="{E66A6BFB-9242-4781-9AD9-E69E54F5D289}" name="dez/25" dataDxfId="421"/>
-    <tableColumn id="17" xr3:uid="{A5D14AC7-43DB-4A36-918A-CF7EE8FC06D3}" name="Nota" dataDxfId="420"/>
+    <tableColumn id="6" xr3:uid="{DFA1AA3E-C06A-416C-A994-1BCB67FB80A2}" name="mai/24" dataDxfId="522"/>
+    <tableColumn id="7" xr3:uid="{B9D499B7-D8FE-4D6C-AD84-50FE52DA5B76}" name="jun/24" dataDxfId="521"/>
+    <tableColumn id="8" xr3:uid="{1C81CC09-816D-44A2-AE5B-8DFE0A22956A}" name="jul/24" dataDxfId="520"/>
+    <tableColumn id="9" xr3:uid="{6F561303-E93F-4B24-82F3-A48FD1333F76}" name="ago/24" dataDxfId="519"/>
+    <tableColumn id="10" xr3:uid="{F64B8867-3B58-4861-BCB8-0A9CE4C6C4A6}" name="set/24" dataDxfId="518"/>
+    <tableColumn id="11" xr3:uid="{97ED0AFA-EEAD-4331-A02D-2456C7E32B00}" name="out/24" dataDxfId="517"/>
+    <tableColumn id="12" xr3:uid="{EF2A60BA-1F7A-48B8-A7A5-A4F2BD71D999}" name="nov/24" dataDxfId="516"/>
+    <tableColumn id="13" xr3:uid="{A86E44F8-99F5-4F11-AAF9-0BAD05635525}" name="dez/24" dataDxfId="515"/>
+    <tableColumn id="14" xr3:uid="{815F4872-9634-4E42-BE4F-B63708467CD7}" name="jan/25" dataDxfId="514"/>
+    <tableColumn id="22" xr3:uid="{CFC09A57-BBF4-49BD-B271-6B9DF42401A2}" name="fev/25" dataDxfId="513"/>
+    <tableColumn id="15" xr3:uid="{ADADB421-2C01-4666-81B6-0A2B88CED929}" name="mar/25" dataDxfId="512"/>
+    <tableColumn id="21" xr3:uid="{EF40C496-BC9B-420D-9D3B-F509449CF3E8}" name="abr/25" dataDxfId="511"/>
+    <tableColumn id="20" xr3:uid="{0C37B4D3-F0B4-4589-904B-1C85E0D16F44}" name="mai/25" dataDxfId="510"/>
+    <tableColumn id="19" xr3:uid="{B7F57FA5-5C23-4D7E-A76B-8D109F785E13}" name="jun/25" dataDxfId="509"/>
+    <tableColumn id="18" xr3:uid="{C36741B3-F4C3-4622-AC46-6EA43763152A}" name="jul/25" dataDxfId="508"/>
+    <tableColumn id="23" xr3:uid="{0C37F6FB-A809-4159-8685-603B85641462}" name="ago/25" dataDxfId="507"/>
+    <tableColumn id="24" xr3:uid="{F2DA22F3-DF37-4D98-A9A6-12053E2187A7}" name="set/25" dataDxfId="506"/>
+    <tableColumn id="25" xr3:uid="{6E3B30EC-E547-4671-A931-5D8A77E47533}" name="out/25" dataDxfId="505"/>
+    <tableColumn id="26" xr3:uid="{40B16882-2952-49D7-B6E0-154584D3B67F}" name="nov/25" dataDxfId="504"/>
+    <tableColumn id="27" xr3:uid="{E66A6BFB-9242-4781-9AD9-E69E54F5D289}" name="dez/25" dataDxfId="503"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:AB15" totalsRowShown="0" headerRowDxfId="399" dataDxfId="398">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:AB15" totalsRowShown="0" headerRowDxfId="502" dataDxfId="501">
   <autoFilter ref="A1:AB15" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -5729,43 +5249,43 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="397"/>
-    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="396"/>
-    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="395"/>
-    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="394"/>
-    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="393"/>
-    <tableColumn id="28" xr3:uid="{35186B1E-2385-4DA4-B58A-3544B994ED84}" name="Estimated effort" dataDxfId="392"/>
-    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="391">
+    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="500"/>
+    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="499"/>
+    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="498"/>
+    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="497"/>
+    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="496"/>
+    <tableColumn id="28" xr3:uid="{35186B1E-2385-4DA4-B58A-3544B994ED84}" name="Estimated effort" dataDxfId="495"/>
+    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="494">
       <calculatedColumnFormula>SUM(Tabela14[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4024B35D-D5C5-4CC9-BF1D-194242B09402}" name="mai/24" dataDxfId="390"/>
-    <tableColumn id="7" xr3:uid="{10F2A9D7-5C0C-4BAD-863C-E2E79D2AA5F7}" name="jun/24" dataDxfId="389"/>
-    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="388"/>
-    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="387"/>
-    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="386"/>
-    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="385"/>
-    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="384"/>
-    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="383"/>
-    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="382"/>
-    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="381"/>
-    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="380"/>
-    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="379"/>
-    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="378"/>
-    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="377"/>
-    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="376"/>
-    <tableColumn id="23" xr3:uid="{226F4512-EFFF-4B67-A802-F81C4A556BA2}" name="ago/25" dataDxfId="375"/>
-    <tableColumn id="24" xr3:uid="{943B2A75-392A-451C-8513-1A2724D9D830}" name="set/25" dataDxfId="374"/>
-    <tableColumn id="25" xr3:uid="{F64BFE81-2021-406A-B71C-31EBB6787670}" name="out/25" dataDxfId="373"/>
-    <tableColumn id="26" xr3:uid="{3AE7650E-1E17-42CF-AA0F-1E3E63B59C0F}" name="nov/25" dataDxfId="372"/>
-    <tableColumn id="27" xr3:uid="{8CFD704A-3542-4E2C-9F13-8C38A240282D}" name="dez/25" dataDxfId="371"/>
-    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="Nota" dataDxfId="370"/>
+    <tableColumn id="6" xr3:uid="{4024B35D-D5C5-4CC9-BF1D-194242B09402}" name="mai/24" dataDxfId="493"/>
+    <tableColumn id="7" xr3:uid="{10F2A9D7-5C0C-4BAD-863C-E2E79D2AA5F7}" name="jun/24" dataDxfId="492"/>
+    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="491"/>
+    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="490"/>
+    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="489"/>
+    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="488"/>
+    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="487"/>
+    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="486"/>
+    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="485"/>
+    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="484"/>
+    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="483"/>
+    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="482"/>
+    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="481"/>
+    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="480"/>
+    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="479"/>
+    <tableColumn id="23" xr3:uid="{226F4512-EFFF-4B67-A802-F81C4A556BA2}" name="ago/25" dataDxfId="478"/>
+    <tableColumn id="24" xr3:uid="{943B2A75-392A-451C-8513-1A2724D9D830}" name="set/25" dataDxfId="477"/>
+    <tableColumn id="25" xr3:uid="{F64BFE81-2021-406A-B71C-31EBB6787670}" name="out/25" dataDxfId="476"/>
+    <tableColumn id="26" xr3:uid="{3AE7650E-1E17-42CF-AA0F-1E3E63B59C0F}" name="nov/25" dataDxfId="475"/>
+    <tableColumn id="27" xr3:uid="{8CFD704A-3542-4E2C-9F13-8C38A240282D}" name="dez/25" dataDxfId="474"/>
+    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="Nota" dataDxfId="473"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{96E87FEF-1F93-4988-979C-6F0B3CF3948C}" name="Tabela145" displayName="Tabela145" ref="A1:AB42" totalsRowShown="0" headerRowDxfId="329" dataDxfId="328">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{96E87FEF-1F93-4988-979C-6F0B3CF3948C}" name="Tabela145" displayName="Tabela145" ref="A1:AB42" totalsRowShown="0" headerRowDxfId="472" dataDxfId="471">
   <autoFilter ref="A1:AB42" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -5776,43 +5296,43 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{F9519377-81C7-4187-9753-447939E185DB}" name="Epic" dataDxfId="327"/>
-    <tableColumn id="2" xr3:uid="{EA51D613-A85E-4474-953F-A26E5DD0F2B2}" name="Ações" dataDxfId="326"/>
-    <tableColumn id="16" xr3:uid="{936A0E97-E444-460D-BFE4-D2E41D277B13}" name="Status" dataDxfId="325"/>
-    <tableColumn id="3" xr3:uid="{E6B627BD-28EC-4BB3-B900-286BABD54094}" name="Due Date" dataDxfId="324"/>
-    <tableColumn id="4" xr3:uid="{48D00FAB-CDF7-460B-961E-CDA7EA4FCE99}" name="Assignee" dataDxfId="323"/>
-    <tableColumn id="28" xr3:uid="{9BF38216-78EF-43C8-9276-4D9D4BD6E37E}" name="Estimated effort" dataDxfId="322"/>
-    <tableColumn id="5" xr3:uid="{450AD5D5-D55C-4927-A1B0-7A8DA311FCAF}" name="Planned effort" dataDxfId="321">
+    <tableColumn id="1" xr3:uid="{F9519377-81C7-4187-9753-447939E185DB}" name="Epic" dataDxfId="470"/>
+    <tableColumn id="2" xr3:uid="{EA51D613-A85E-4474-953F-A26E5DD0F2B2}" name="Ações" dataDxfId="469"/>
+    <tableColumn id="16" xr3:uid="{936A0E97-E444-460D-BFE4-D2E41D277B13}" name="Status" dataDxfId="468"/>
+    <tableColumn id="3" xr3:uid="{E6B627BD-28EC-4BB3-B900-286BABD54094}" name="Due Date" dataDxfId="467"/>
+    <tableColumn id="4" xr3:uid="{48D00FAB-CDF7-460B-961E-CDA7EA4FCE99}" name="Assignee" dataDxfId="466"/>
+    <tableColumn id="28" xr3:uid="{9BF38216-78EF-43C8-9276-4D9D4BD6E37E}" name="Estimated effort" dataDxfId="465"/>
+    <tableColumn id="5" xr3:uid="{450AD5D5-D55C-4927-A1B0-7A8DA311FCAF}" name="Planned effort" dataDxfId="464">
       <calculatedColumnFormula>SUM(Tabela145[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B39C378E-159F-4247-8CE3-E8C988F19612}" name="mai/24" dataDxfId="320"/>
-    <tableColumn id="7" xr3:uid="{6392714A-3175-46E0-9FE9-27F425EE0197}" name="jun/24" dataDxfId="319"/>
-    <tableColumn id="8" xr3:uid="{5A832306-F685-479B-8FA0-042D07FB823D}" name="jul/24" dataDxfId="318"/>
-    <tableColumn id="9" xr3:uid="{E035633E-2089-41E4-A8DD-7AB04335908A}" name="ago/24" dataDxfId="317"/>
-    <tableColumn id="10" xr3:uid="{6773E4DF-22A8-4002-8564-8D426FACBE5C}" name="set/24" dataDxfId="316"/>
-    <tableColumn id="11" xr3:uid="{C8D0F604-B09A-43C9-A943-0A9D249858AB}" name="out/24" dataDxfId="315"/>
-    <tableColumn id="12" xr3:uid="{198E8D9C-C811-4F93-BB92-870CA38DDBC9}" name="nov/24" dataDxfId="314"/>
-    <tableColumn id="13" xr3:uid="{7C075B77-555E-490F-8367-55EB7DF2A783}" name="dez/24" dataDxfId="313"/>
-    <tableColumn id="14" xr3:uid="{3E762F6B-5F6E-438E-B334-C97D88CF2A3F}" name="jan/25" dataDxfId="312"/>
-    <tableColumn id="15" xr3:uid="{06E1EFAC-EE08-4C2C-838A-486CAA4F584D}" name="fev/25" dataDxfId="311"/>
-    <tableColumn id="22" xr3:uid="{7294784F-A804-467B-A693-ECD0945F2D4D}" name="mar/25" dataDxfId="310"/>
-    <tableColumn id="21" xr3:uid="{3E470DB1-FEF9-4830-B59F-78A3A36361B2}" name="abr/25" dataDxfId="309"/>
-    <tableColumn id="20" xr3:uid="{D12C36DF-9E18-4634-812E-94724C3C78FA}" name="mai/25" dataDxfId="308"/>
-    <tableColumn id="19" xr3:uid="{9FF40D33-7559-4468-95B1-1CF49B89D802}" name="jun/25" dataDxfId="307"/>
-    <tableColumn id="18" xr3:uid="{DBE93E5C-B6F4-473F-9D46-E33E3A0984F5}" name="jul/25" dataDxfId="306"/>
-    <tableColumn id="23" xr3:uid="{6329BA55-D15F-4BEA-9410-496BC4DFEA47}" name="ago/25" dataDxfId="305"/>
-    <tableColumn id="24" xr3:uid="{5F02EC13-04F7-40F7-BC9A-0808475ED688}" name="set/25" dataDxfId="304"/>
-    <tableColumn id="25" xr3:uid="{77E5F356-F39B-4EC6-B743-CCAA834E5EC0}" name="out/25" dataDxfId="303"/>
-    <tableColumn id="26" xr3:uid="{60683F6A-24AD-4D7D-8062-AF9BDCEB4ACD}" name="nov/25" dataDxfId="302"/>
-    <tableColumn id="27" xr3:uid="{17EA0A0B-F317-4232-8FFA-60D956FA2415}" name="dez/25" dataDxfId="301"/>
-    <tableColumn id="17" xr3:uid="{AAD216CF-9486-4134-9142-D0A53E3F3FE2}" name="Nota" dataDxfId="300"/>
+    <tableColumn id="6" xr3:uid="{B39C378E-159F-4247-8CE3-E8C988F19612}" name="mai/24" dataDxfId="463"/>
+    <tableColumn id="7" xr3:uid="{6392714A-3175-46E0-9FE9-27F425EE0197}" name="jun/24" dataDxfId="462"/>
+    <tableColumn id="8" xr3:uid="{5A832306-F685-479B-8FA0-042D07FB823D}" name="jul/24" dataDxfId="461"/>
+    <tableColumn id="9" xr3:uid="{E035633E-2089-41E4-A8DD-7AB04335908A}" name="ago/24" dataDxfId="460"/>
+    <tableColumn id="10" xr3:uid="{6773E4DF-22A8-4002-8564-8D426FACBE5C}" name="set/24" dataDxfId="459"/>
+    <tableColumn id="11" xr3:uid="{C8D0F604-B09A-43C9-A943-0A9D249858AB}" name="out/24" dataDxfId="458"/>
+    <tableColumn id="12" xr3:uid="{198E8D9C-C811-4F93-BB92-870CA38DDBC9}" name="nov/24" dataDxfId="457"/>
+    <tableColumn id="13" xr3:uid="{7C075B77-555E-490F-8367-55EB7DF2A783}" name="dez/24" dataDxfId="456"/>
+    <tableColumn id="14" xr3:uid="{3E762F6B-5F6E-438E-B334-C97D88CF2A3F}" name="jan/25" dataDxfId="455"/>
+    <tableColumn id="15" xr3:uid="{06E1EFAC-EE08-4C2C-838A-486CAA4F584D}" name="fev/25" dataDxfId="454"/>
+    <tableColumn id="22" xr3:uid="{7294784F-A804-467B-A693-ECD0945F2D4D}" name="mar/25" dataDxfId="453"/>
+    <tableColumn id="21" xr3:uid="{3E470DB1-FEF9-4830-B59F-78A3A36361B2}" name="abr/25" dataDxfId="452"/>
+    <tableColumn id="20" xr3:uid="{D12C36DF-9E18-4634-812E-94724C3C78FA}" name="mai/25" dataDxfId="451"/>
+    <tableColumn id="19" xr3:uid="{9FF40D33-7559-4468-95B1-1CF49B89D802}" name="jun/25" dataDxfId="450"/>
+    <tableColumn id="18" xr3:uid="{DBE93E5C-B6F4-473F-9D46-E33E3A0984F5}" name="jul/25" dataDxfId="449"/>
+    <tableColumn id="23" xr3:uid="{6329BA55-D15F-4BEA-9410-496BC4DFEA47}" name="ago/25" dataDxfId="448"/>
+    <tableColumn id="24" xr3:uid="{5F02EC13-04F7-40F7-BC9A-0808475ED688}" name="set/25" dataDxfId="447"/>
+    <tableColumn id="25" xr3:uid="{77E5F356-F39B-4EC6-B743-CCAA834E5EC0}" name="out/25" dataDxfId="446"/>
+    <tableColumn id="26" xr3:uid="{60683F6A-24AD-4D7D-8062-AF9BDCEB4ACD}" name="nov/25" dataDxfId="445"/>
+    <tableColumn id="27" xr3:uid="{17EA0A0B-F317-4232-8FFA-60D956FA2415}" name="dez/25" dataDxfId="444"/>
+    <tableColumn id="17" xr3:uid="{AAD216CF-9486-4134-9142-D0A53E3F3FE2}" name="Nota" dataDxfId="443"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76087582-A7E6-47FB-9822-402BD1F32586}" name="Tabela14" displayName="Tabela14" ref="A1:AB56" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76087582-A7E6-47FB-9822-402BD1F32586}" name="Tabela14" displayName="Tabela14" ref="A1:AB56" totalsRowShown="0" headerRowDxfId="442" dataDxfId="441">
   <autoFilter ref="A1:AB56" xr:uid="{76087582-A7E6-47FB-9822-402BD1F32586}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -5823,43 +5343,43 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{27EF11F8-0D02-4148-A485-90D49472F292}" name="Epic" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{9061DFBA-9FCF-4614-A489-E45871AEEC40}" name="Ações" dataDxfId="144"/>
-    <tableColumn id="16" xr3:uid="{F35679E5-70DD-4EF3-92B0-74A5E990352B}" name="Status" dataDxfId="143"/>
-    <tableColumn id="3" xr3:uid="{DC745C88-45BF-4F3C-8AD4-4A29A610C754}" name="Due Date" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{C74C004F-DD7E-4572-8478-28BEED5BACDE}" name="Assignee" dataDxfId="141"/>
-    <tableColumn id="28" xr3:uid="{BF105A62-464B-44B9-AFDE-9D377DDA8018}" name="Estimated effort" dataDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{F4D64031-1A3C-41A9-B3D4-7204A0697297}" name="Planned effort" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{27EF11F8-0D02-4148-A485-90D49472F292}" name="Epic" dataDxfId="440"/>
+    <tableColumn id="2" xr3:uid="{9061DFBA-9FCF-4614-A489-E45871AEEC40}" name="Ações" dataDxfId="439"/>
+    <tableColumn id="16" xr3:uid="{F35679E5-70DD-4EF3-92B0-74A5E990352B}" name="Status" dataDxfId="438"/>
+    <tableColumn id="3" xr3:uid="{DC745C88-45BF-4F3C-8AD4-4A29A610C754}" name="Due Date" dataDxfId="437"/>
+    <tableColumn id="4" xr3:uid="{C74C004F-DD7E-4572-8478-28BEED5BACDE}" name="Assignee" dataDxfId="436"/>
+    <tableColumn id="28" xr3:uid="{BF105A62-464B-44B9-AFDE-9D377DDA8018}" name="Estimated effort" dataDxfId="435"/>
+    <tableColumn id="5" xr3:uid="{F4D64031-1A3C-41A9-B3D4-7204A0697297}" name="Planned effort" dataDxfId="434">
       <calculatedColumnFormula>SUM(Tabela14[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FF27B6CE-F671-4DD1-A978-6E523D108770}" name="mai/24" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{49C1E54D-0F03-4EDE-A870-84475B2E94EF}" name="jun/24" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{0E32FB83-BFA1-4147-BCEF-AD7377E169A2}" name="jul/24" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{A9E0B361-1744-4649-A63D-C9F6A63755E2}" name="ago/24" dataDxfId="135"/>
-    <tableColumn id="10" xr3:uid="{E6593ED7-5820-4928-A9C3-DD87048AE2F8}" name="set/24" dataDxfId="134"/>
-    <tableColumn id="11" xr3:uid="{0E92934C-29C6-4A1D-94D7-137860B737D0}" name="out/24" dataDxfId="133"/>
-    <tableColumn id="12" xr3:uid="{EB4811A4-D7F4-41D9-B634-8EBDE5646D36}" name="nov/24" dataDxfId="132"/>
-    <tableColumn id="13" xr3:uid="{E8221E99-4143-4B68-9E8C-ED458FEFE89B}" name="dez/24" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{75D22200-3923-408F-847B-1D5D19C07D97}" name="jan/25" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{A0F2F8BA-EE95-4828-A250-CC513D01AD80}" name="fev/25" dataDxfId="129"/>
-    <tableColumn id="21" xr3:uid="{0FB3155B-3532-4844-BAAF-71CC9F13162C}" name="mar/25" dataDxfId="128"/>
-    <tableColumn id="20" xr3:uid="{D8F7CEFD-D476-4EC7-A261-909444E73D10}" name="abr/25" dataDxfId="127"/>
-    <tableColumn id="22" xr3:uid="{9BE920BF-BDC3-4A68-94CD-A2C746298552}" name="mai/25" dataDxfId="126"/>
-    <tableColumn id="19" xr3:uid="{B5172698-1513-45DA-A68A-64A05267E872}" name="jun/25" dataDxfId="125"/>
-    <tableColumn id="23" xr3:uid="{A06B4CFC-293E-4EB5-933F-2B452CA27668}" name="jul/25" dataDxfId="124"/>
-    <tableColumn id="18" xr3:uid="{5C5611C1-3EB6-4E44-A621-78AB42FE8924}" name="ago/25" dataDxfId="123"/>
-    <tableColumn id="24" xr3:uid="{63BD2EBD-514E-46E7-8AB7-9ABED111A692}" name="set/25" dataDxfId="122"/>
-    <tableColumn id="25" xr3:uid="{9CBFD7FF-7E7D-4DCF-8C0B-C0A2DC612CF0}" name="out/25" dataDxfId="121"/>
-    <tableColumn id="26" xr3:uid="{4601A9C7-896F-410B-AF63-634531AAE5AF}" name="nov/25" dataDxfId="120"/>
-    <tableColumn id="27" xr3:uid="{160D7244-4B5C-4B2D-A6FE-74C9E82E50D0}" name="dez/25" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{5DB179B7-95AC-4346-8987-85C56AEC4DE7}" name="Nota" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{FF27B6CE-F671-4DD1-A978-6E523D108770}" name="mai/24" dataDxfId="433"/>
+    <tableColumn id="7" xr3:uid="{49C1E54D-0F03-4EDE-A870-84475B2E94EF}" name="jun/24" dataDxfId="432"/>
+    <tableColumn id="8" xr3:uid="{0E32FB83-BFA1-4147-BCEF-AD7377E169A2}" name="jul/24" dataDxfId="431"/>
+    <tableColumn id="9" xr3:uid="{A9E0B361-1744-4649-A63D-C9F6A63755E2}" name="ago/24" dataDxfId="430"/>
+    <tableColumn id="10" xr3:uid="{E6593ED7-5820-4928-A9C3-DD87048AE2F8}" name="set/24" dataDxfId="429"/>
+    <tableColumn id="11" xr3:uid="{0E92934C-29C6-4A1D-94D7-137860B737D0}" name="out/24" dataDxfId="428"/>
+    <tableColumn id="12" xr3:uid="{EB4811A4-D7F4-41D9-B634-8EBDE5646D36}" name="nov/24" dataDxfId="427"/>
+    <tableColumn id="13" xr3:uid="{E8221E99-4143-4B68-9E8C-ED458FEFE89B}" name="dez/24" dataDxfId="426"/>
+    <tableColumn id="14" xr3:uid="{75D22200-3923-408F-847B-1D5D19C07D97}" name="jan/25" dataDxfId="425"/>
+    <tableColumn id="15" xr3:uid="{A0F2F8BA-EE95-4828-A250-CC513D01AD80}" name="fev/25" dataDxfId="424"/>
+    <tableColumn id="21" xr3:uid="{0FB3155B-3532-4844-BAAF-71CC9F13162C}" name="mar/25" dataDxfId="423"/>
+    <tableColumn id="20" xr3:uid="{D8F7CEFD-D476-4EC7-A261-909444E73D10}" name="abr/25" dataDxfId="422"/>
+    <tableColumn id="22" xr3:uid="{9BE920BF-BDC3-4A68-94CD-A2C746298552}" name="mai/25" dataDxfId="421"/>
+    <tableColumn id="19" xr3:uid="{B5172698-1513-45DA-A68A-64A05267E872}" name="jun/25" dataDxfId="420"/>
+    <tableColumn id="23" xr3:uid="{A06B4CFC-293E-4EB5-933F-2B452CA27668}" name="jul/25" dataDxfId="419"/>
+    <tableColumn id="18" xr3:uid="{5C5611C1-3EB6-4E44-A621-78AB42FE8924}" name="ago/25" dataDxfId="418"/>
+    <tableColumn id="24" xr3:uid="{63BD2EBD-514E-46E7-8AB7-9ABED111A692}" name="set/25" dataDxfId="417"/>
+    <tableColumn id="25" xr3:uid="{9CBFD7FF-7E7D-4DCF-8C0B-C0A2DC612CF0}" name="out/25" dataDxfId="416"/>
+    <tableColumn id="26" xr3:uid="{4601A9C7-896F-410B-AF63-634531AAE5AF}" name="nov/25" dataDxfId="415"/>
+    <tableColumn id="27" xr3:uid="{160D7244-4B5C-4B2D-A6FE-74C9E82E50D0}" name="dez/25" dataDxfId="414"/>
+    <tableColumn id="17" xr3:uid="{5DB179B7-95AC-4346-8987-85C56AEC4DE7}" name="Nota" dataDxfId="413"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11433BCD-74C2-4161-A9C0-B2E06B88C5A6}" name="Tabela132" displayName="Tabela132" ref="A1:X36" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11433BCD-74C2-4161-A9C0-B2E06B88C5A6}" name="Tabela132" displayName="Tabela132" ref="A1:X36" totalsRowShown="0" headerRowDxfId="412" dataDxfId="411">
   <autoFilter ref="A1:X36" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -5871,39 +5391,39 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{855E3B46-D296-4CAB-A175-B875E9193505}" name="Epic" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{60B76A45-CDDA-4943-A6A7-67026CE2BA3A}" name="Ações" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{B269EC9A-F6F0-41F9-B762-CB59BD20E741}" name="Status" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7F8E0AE4-90A4-4130-90A9-80893F0906A8}" name="Due Date" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{B98BE71E-FC61-4627-99C3-6BDDE1E1E4E2}" name="Assignee" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{7025E121-0B5E-4715-8D1B-F2ED6A06C1A4}" name="Estimated effort" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{423DBCD1-71B2-4336-9B87-61DBE46DB1BA}" name="Planned effort" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{855E3B46-D296-4CAB-A175-B875E9193505}" name="Epic" dataDxfId="410"/>
+    <tableColumn id="2" xr3:uid="{60B76A45-CDDA-4943-A6A7-67026CE2BA3A}" name="Ações" dataDxfId="409"/>
+    <tableColumn id="16" xr3:uid="{B269EC9A-F6F0-41F9-B762-CB59BD20E741}" name="Status" dataDxfId="408"/>
+    <tableColumn id="3" xr3:uid="{7F8E0AE4-90A4-4130-90A9-80893F0906A8}" name="Due Date" dataDxfId="407"/>
+    <tableColumn id="4" xr3:uid="{B98BE71E-FC61-4627-99C3-6BDDE1E1E4E2}" name="Assignee" dataDxfId="406"/>
+    <tableColumn id="6" xr3:uid="{7025E121-0B5E-4715-8D1B-F2ED6A06C1A4}" name="Estimated effort" dataDxfId="405"/>
+    <tableColumn id="5" xr3:uid="{423DBCD1-71B2-4336-9B87-61DBE46DB1BA}" name="Planned effort" dataDxfId="404">
       <calculatedColumnFormula>SUM(Tabela132[[#This Row],[set/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0119B48-8C40-4702-B334-403142165FCD}" name="set/24" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{B7AEDD5B-BE66-4DFF-A131-C3CB67E4A95B}" name="out/24" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{E2F0DFD1-7E42-4862-B95A-F5A55C8DF1F3}" name="nov/24" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{2FA59405-7C6D-4F44-B91E-C8104B18F8D0}" name="dez/24" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{FEEAF7F7-95FF-407C-B4E8-CCC2E494F6A4}" name="jan/25" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{A710E1C4-08E3-45C8-B0EF-DD0952B7561A}" name="fev/25" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{DE4144B2-80A9-4EC0-B4DA-0CC722105D52}" name="mar/25" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{21EAD8D7-A72E-40E4-85A6-CC3B76A03345}" name="abr/25" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{FD7FBF83-4E91-43DB-9552-79E97E85FAB8}" name="mai/25" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{B104138B-FB47-4830-B286-6EA2E85DD6BE}" name="jun/25" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{8A472C6F-167D-438D-B856-1482AFA5F5AB}" name="jul/25" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{ED6626E2-2844-419A-9F56-879B992F3301}" name="ago/25" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{31A86700-E81E-4A85-90E2-9F1A1DC062C1}" name="set/25" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{EEB14E68-8C21-40BE-A60F-05BBE4A9D867}" name="out/25" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{7CA679B9-5935-49C4-88AF-7F09E0AAB67C}" name="nov/25" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{3D76A7F8-851F-4F00-8C7D-C8A184C3054E}" name="dez/25" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{93AF5D78-5520-41BC-9B05-406D183FAE90}" name="Nota" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{C0119B48-8C40-4702-B334-403142165FCD}" name="set/24" dataDxfId="403"/>
+    <tableColumn id="10" xr3:uid="{B7AEDD5B-BE66-4DFF-A131-C3CB67E4A95B}" name="out/24" dataDxfId="402"/>
+    <tableColumn id="11" xr3:uid="{E2F0DFD1-7E42-4862-B95A-F5A55C8DF1F3}" name="nov/24" dataDxfId="401"/>
+    <tableColumn id="12" xr3:uid="{2FA59405-7C6D-4F44-B91E-C8104B18F8D0}" name="dez/24" dataDxfId="400"/>
+    <tableColumn id="13" xr3:uid="{FEEAF7F7-95FF-407C-B4E8-CCC2E494F6A4}" name="jan/25" dataDxfId="399"/>
+    <tableColumn id="14" xr3:uid="{A710E1C4-08E3-45C8-B0EF-DD0952B7561A}" name="fev/25" dataDxfId="398"/>
+    <tableColumn id="15" xr3:uid="{DE4144B2-80A9-4EC0-B4DA-0CC722105D52}" name="mar/25" dataDxfId="397"/>
+    <tableColumn id="22" xr3:uid="{21EAD8D7-A72E-40E4-85A6-CC3B76A03345}" name="abr/25" dataDxfId="396"/>
+    <tableColumn id="21" xr3:uid="{FD7FBF83-4E91-43DB-9552-79E97E85FAB8}" name="mai/25" dataDxfId="395"/>
+    <tableColumn id="20" xr3:uid="{B104138B-FB47-4830-B286-6EA2E85DD6BE}" name="jun/25" dataDxfId="394"/>
+    <tableColumn id="19" xr3:uid="{8A472C6F-167D-438D-B856-1482AFA5F5AB}" name="jul/25" dataDxfId="393"/>
+    <tableColumn id="18" xr3:uid="{ED6626E2-2844-419A-9F56-879B992F3301}" name="ago/25" dataDxfId="392"/>
+    <tableColumn id="23" xr3:uid="{31A86700-E81E-4A85-90E2-9F1A1DC062C1}" name="set/25" dataDxfId="391"/>
+    <tableColumn id="24" xr3:uid="{EEB14E68-8C21-40BE-A60F-05BBE4A9D867}" name="out/25" dataDxfId="390"/>
+    <tableColumn id="25" xr3:uid="{7CA679B9-5935-49C4-88AF-7F09E0AAB67C}" name="nov/25" dataDxfId="389"/>
+    <tableColumn id="26" xr3:uid="{3D76A7F8-851F-4F00-8C7D-C8A184C3054E}" name="dez/25" dataDxfId="388"/>
+    <tableColumn id="17" xr3:uid="{93AF5D78-5520-41BC-9B05-406D183FAE90}" name="Nota" dataDxfId="387"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10789,241 +10309,185 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H74:L75 H76:S77 H78:N78 H96:I96 H79:S94 A5:B5 H7:L8 H9:S10 H11:N11 H27:I27 H5:S6 H12:S25 H73:S73 I29:T29 H28:S28 I30:S72 A28:B72">
-    <cfRule type="expression" dxfId="622" priority="301">
-      <formula>IF($A5="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="621" priority="302">
+  <conditionalFormatting sqref="A5:B5 H5:S6 H7:L8 H9:S10 H11:N11 H27:I27 H28:S28 A28:B72 I29:T29 I30:S72 H78:N78">
+    <cfRule type="expression" dxfId="386" priority="302">
       <formula>IF($A5="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="303">
+    <cfRule type="expression" dxfId="385" priority="303">
       <formula>IF($A5="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="304">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5 H5:S6 H7:L8 H9:S10 H11:N11 H27:I27 H28:S28 A28:B72 I29:T29 I30:S72">
+    <cfRule type="expression" dxfId="384" priority="304">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N74:S75">
-    <cfRule type="expression" dxfId="618" priority="133">
-      <formula>IF($A74="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="617" priority="134">
-      <formula>IF($A74="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="616" priority="135">
-      <formula>IF($A74="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="615" priority="136">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:M75">
-    <cfRule type="expression" dxfId="614" priority="125">
-      <formula>IF($A74="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="613" priority="126">
-      <formula>IF($A74="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="612" priority="127">
-      <formula>IF($A74="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="611" priority="128">
+  <conditionalFormatting sqref="A10:B10">
+    <cfRule type="expression" dxfId="383" priority="21">
+      <formula>IF($A10="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="22">
+      <formula>IF($A10="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="23">
+      <formula>IF($A10="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="24">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="expression" dxfId="610" priority="89">
+    <cfRule type="expression" dxfId="379" priority="89">
       <formula>IF($A77="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="90">
+    <cfRule type="expression" dxfId="378" priority="90">
       <formula>IF($A77="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="91">
+    <cfRule type="expression" dxfId="377" priority="91">
       <formula>IF($A77="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="92">
+    <cfRule type="expression" dxfId="376" priority="92">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:N78 H11:N11 A5:B5 H5:S6 H7:L8 H9:S10 H27:I27 H28:S28 A28:B72 I29:T29 I30:S72">
+    <cfRule type="expression" dxfId="375" priority="301">
+      <formula>IF($A5="Esforço total atribuído",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:S26">
+    <cfRule type="expression" dxfId="374" priority="1">
+      <formula>IF($A12="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="2">
+      <formula>IF($A12="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="3">
+      <formula>IF($A12="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="4">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:S77">
+    <cfRule type="expression" dxfId="370" priority="125">
+      <formula>IF($A73="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="126">
+      <formula>IF($A73="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="127">
+      <formula>IF($A73="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:S96">
+    <cfRule type="expression" dxfId="367" priority="36">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:S96">
+    <cfRule type="expression" dxfId="366" priority="33">
+      <formula>IF($A79="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="34">
+      <formula>IF($A79="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="35">
+      <formula>IF($A79="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:L27">
+    <cfRule type="expression" dxfId="363" priority="13">
+      <formula>IF($A27="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="14">
+      <formula>IF($A27="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="15">
+      <formula>IF($A27="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="16">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M8">
+    <cfRule type="expression" dxfId="359" priority="25">
+      <formula>IF($A7="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="26">
+      <formula>IF($A7="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="27">
+      <formula>IF($A7="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="28">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:O27">
+    <cfRule type="expression" dxfId="355" priority="9">
+      <formula>IF($A27="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="10">
+      <formula>IF($A27="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="11">
+      <formula>IF($A27="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="12">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:S11">
+    <cfRule type="expression" dxfId="351" priority="17">
+      <formula>IF($A11="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="18">
+      <formula>IF($A11="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="19">
+      <formula>IF($A11="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="20">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78:S78">
-    <cfRule type="expression" dxfId="606" priority="65">
+    <cfRule type="expression" dxfId="347" priority="65">
       <formula>IF($A78="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="66">
+    <cfRule type="expression" dxfId="346" priority="66">
       <formula>IF($A78="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="67">
+    <cfRule type="expression" dxfId="345" priority="67">
       <formula>IF($A78="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="603" priority="68">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:L96">
-    <cfRule type="expression" dxfId="602" priority="57">
-      <formula>IF($A96="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="601" priority="58">
-      <formula>IF($A96="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="600" priority="59">
-      <formula>IF($A96="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="599" priority="60">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M96:O96">
-    <cfRule type="expression" dxfId="598" priority="53">
-      <formula>IF($A96="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="54">
-      <formula>IF($A96="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="596" priority="55">
-      <formula>IF($A96="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="56">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P96:S96">
-    <cfRule type="expression" dxfId="594" priority="49">
-      <formula>IF($A96="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="50">
-      <formula>IF($A96="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="592" priority="51">
-      <formula>IF($A96="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="52">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:S95">
-    <cfRule type="expression" dxfId="590" priority="33">
-      <formula>IF($A95="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="34">
-      <formula>IF($A95="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="588" priority="35">
-      <formula>IF($A95="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="36">
-      <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:S8">
-    <cfRule type="expression" dxfId="586" priority="29">
+    <cfRule type="expression" dxfId="344" priority="29">
       <formula>IF($A7="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="30">
+    <cfRule type="expression" dxfId="343" priority="30">
       <formula>IF($A7="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="31">
+    <cfRule type="expression" dxfId="342" priority="31">
       <formula>IF($A7="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="32">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8">
-    <cfRule type="expression" dxfId="582" priority="25">
-      <formula>IF($A7="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="26">
-      <formula>IF($A7="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="580" priority="27">
-      <formula>IF($A7="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="28">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10">
-    <cfRule type="expression" dxfId="578" priority="21">
-      <formula>IF($A10="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="22">
-      <formula>IF($A10="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="576" priority="23">
-      <formula>IF($A10="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="24">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:S11">
-    <cfRule type="expression" dxfId="574" priority="17">
-      <formula>IF($A11="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="573" priority="18">
-      <formula>IF($A11="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="572" priority="19">
-      <formula>IF($A11="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="571" priority="20">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:L27">
-    <cfRule type="expression" dxfId="570" priority="13">
-      <formula>IF($A27="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="569" priority="14">
-      <formula>IF($A27="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="15">
-      <formula>IF($A27="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="567" priority="16">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:O27">
-    <cfRule type="expression" dxfId="566" priority="9">
-      <formula>IF($A27="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="565" priority="10">
-      <formula>IF($A27="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="11">
-      <formula>IF($A27="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="563" priority="12">
+    <cfRule type="expression" dxfId="341" priority="32">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:S27">
-    <cfRule type="expression" dxfId="562" priority="5">
+    <cfRule type="expression" dxfId="340" priority="5">
       <formula>IF($A27="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="6">
+    <cfRule type="expression" dxfId="339" priority="6">
       <formula>IF($A27="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="7">
+    <cfRule type="expression" dxfId="338" priority="7">
       <formula>IF($A27="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="8">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:S26">
-    <cfRule type="expression" dxfId="558" priority="1">
-      <formula>IF($A26="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="557" priority="2">
-      <formula>IF($A26="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="3">
-      <formula>IF($A26="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="555" priority="4">
+    <cfRule type="expression" dxfId="337" priority="8">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11043,11 +10507,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFB198F-52FF-42E0-B4E9-9E5A3CBDE588}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11063,7 +10527,7 @@
     <col min="12" max="27" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11145,11 +10609,8 @@
       <c r="AA1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="AB1" s="63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -11237,9 +10698,8 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -11307,9 +10767,8 @@
       <c r="AA3" s="61">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -11402,10 +10861,9 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="17"/>
@@ -11481,9 +10939,8 @@
       <c r="AA5" s="53">
         <v>27</v>
       </c>
-      <c r="AB5" s="71"/>
-    </row>
-    <row r="6" spans="1:28" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>119</v>
       </c>
@@ -11511,50 +10968,49 @@
       <c r="J6" s="32">
         <v>0</v>
       </c>
-      <c r="K6" s="72">
-        <v>0</v>
-      </c>
-      <c r="L6" s="72">
-        <v>0</v>
-      </c>
-      <c r="M6" s="72">
-        <v>0</v>
-      </c>
-      <c r="N6" s="72">
-        <v>0</v>
-      </c>
-      <c r="O6" s="72">
-        <v>0</v>
-      </c>
-      <c r="P6" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="72">
-        <v>0</v>
-      </c>
-      <c r="R6" s="72">
-        <v>0</v>
-      </c>
-      <c r="S6" s="72">
-        <v>0</v>
-      </c>
-      <c r="T6" s="72">
-        <v>0</v>
-      </c>
-      <c r="U6" s="72">
-        <v>0</v>
-      </c>
-      <c r="V6" s="72">
-        <v>0</v>
-      </c>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="73"/>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="71">
+        <v>0</v>
+      </c>
+      <c r="L6" s="71">
+        <v>0</v>
+      </c>
+      <c r="M6" s="71">
+        <v>0</v>
+      </c>
+      <c r="N6" s="71">
+        <v>0</v>
+      </c>
+      <c r="O6" s="71">
+        <v>0</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>0</v>
+      </c>
+      <c r="R6" s="71">
+        <v>0</v>
+      </c>
+      <c r="S6" s="71">
+        <v>0</v>
+      </c>
+      <c r="T6" s="71">
+        <v>0</v>
+      </c>
+      <c r="U6" s="71">
+        <v>0</v>
+      </c>
+      <c r="V6" s="71">
+        <v>0</v>
+      </c>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+    </row>
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -11622,9 +11078,8 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
-      <c r="AB7" s="58"/>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>229</v>
       </c>
@@ -11696,11 +11151,8 @@
       <c r="AA8" s="47">
         <v>0</v>
       </c>
-      <c r="AB8" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -11783,9 +11235,8 @@
       <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="58"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -11865,9 +11316,8 @@
       <c r="AA10" s="16">
         <v>0</v>
       </c>
-      <c r="AB10" s="58"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -11947,9 +11397,8 @@
       <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="58"/>
-    </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
@@ -12017,9 +11466,8 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
-      <c r="AB12" s="58"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -12099,9 +11547,8 @@
       <c r="AA13" s="16">
         <v>0</v>
       </c>
-      <c r="AB13" s="58"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>153</v>
       </c>
@@ -12182,9 +11629,8 @@
       <c r="AA14" s="16">
         <v>0</v>
       </c>
-      <c r="AB14" s="58"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>126</v>
       </c>
@@ -12264,9 +11710,8 @@
       <c r="AA15" s="16">
         <v>0</v>
       </c>
-      <c r="AB15" s="58"/>
-    </row>
-    <row r="16" spans="1:28" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>127</v>
       </c>
@@ -12294,50 +11739,49 @@
       <c r="J16" s="32">
         <v>0</v>
       </c>
-      <c r="K16" s="72">
-        <v>0</v>
-      </c>
-      <c r="L16" s="72">
-        <v>0</v>
-      </c>
-      <c r="M16" s="72">
-        <v>0</v>
-      </c>
-      <c r="N16" s="72">
-        <v>0</v>
-      </c>
-      <c r="O16" s="72">
-        <v>0</v>
-      </c>
-      <c r="P16" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="72">
-        <v>0</v>
-      </c>
-      <c r="R16" s="72">
-        <v>0</v>
-      </c>
-      <c r="S16" s="72">
-        <v>0</v>
-      </c>
-      <c r="T16" s="72">
-        <v>0</v>
-      </c>
-      <c r="U16" s="72">
-        <v>0</v>
-      </c>
-      <c r="V16" s="72">
-        <v>0</v>
-      </c>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="73"/>
-    </row>
-    <row r="17" spans="1:28" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="71">
+        <v>0</v>
+      </c>
+      <c r="L16" s="71">
+        <v>0</v>
+      </c>
+      <c r="M16" s="71">
+        <v>0</v>
+      </c>
+      <c r="N16" s="71">
+        <v>0</v>
+      </c>
+      <c r="O16" s="71">
+        <v>0</v>
+      </c>
+      <c r="P16" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="71">
+        <v>0</v>
+      </c>
+      <c r="R16" s="71">
+        <v>0</v>
+      </c>
+      <c r="S16" s="71">
+        <v>0</v>
+      </c>
+      <c r="T16" s="71">
+        <v>0</v>
+      </c>
+      <c r="U16" s="71">
+        <v>0</v>
+      </c>
+      <c r="V16" s="71">
+        <v>0</v>
+      </c>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+    </row>
+    <row r="17" spans="1:27" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>142</v>
       </c>
@@ -12365,50 +11809,49 @@
       <c r="J17" s="40">
         <v>0</v>
       </c>
-      <c r="K17" s="74">
-        <v>0</v>
-      </c>
-      <c r="L17" s="72">
-        <v>0</v>
-      </c>
-      <c r="M17" s="72">
-        <v>0</v>
-      </c>
-      <c r="N17" s="72">
-        <v>0</v>
-      </c>
-      <c r="O17" s="72">
-        <v>0</v>
-      </c>
-      <c r="P17" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="72">
-        <v>0</v>
-      </c>
-      <c r="R17" s="72">
-        <v>0</v>
-      </c>
-      <c r="S17" s="72">
-        <v>0</v>
-      </c>
-      <c r="T17" s="72">
-        <v>0</v>
-      </c>
-      <c r="U17" s="72">
-        <v>0</v>
-      </c>
-      <c r="V17" s="72">
-        <v>0</v>
-      </c>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="73"/>
-    </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="72">
+        <v>0</v>
+      </c>
+      <c r="L17" s="71">
+        <v>0</v>
+      </c>
+      <c r="M17" s="71">
+        <v>0</v>
+      </c>
+      <c r="N17" s="71">
+        <v>0</v>
+      </c>
+      <c r="O17" s="71">
+        <v>0</v>
+      </c>
+      <c r="P17" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>0</v>
+      </c>
+      <c r="R17" s="71">
+        <v>0</v>
+      </c>
+      <c r="S17" s="71">
+        <v>0</v>
+      </c>
+      <c r="T17" s="71">
+        <v>0</v>
+      </c>
+      <c r="U17" s="71">
+        <v>0</v>
+      </c>
+      <c r="V17" s="71">
+        <v>0</v>
+      </c>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+    </row>
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -12482,9 +11925,8 @@
       <c r="AA18" s="16">
         <v>0</v>
       </c>
-      <c r="AB18" s="58"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -12560,9 +12002,8 @@
       <c r="AA19" s="16">
         <v>0</v>
       </c>
-      <c r="AB19" s="58"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
@@ -12638,9 +12079,8 @@
       <c r="AA20" s="16">
         <v>0</v>
       </c>
-      <c r="AB20" s="58"/>
-    </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -12702,9 +12142,8 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="58"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>103</v>
       </c>
@@ -12784,9 +12223,8 @@
       <c r="AA22" s="16">
         <v>0</v>
       </c>
-      <c r="AB22" s="58"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>102</v>
       </c>
@@ -12866,9 +12304,8 @@
       <c r="AA23" s="16">
         <v>0</v>
       </c>
-      <c r="AB23" s="58"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>129</v>
       </c>
@@ -12948,9 +12385,8 @@
       <c r="AA24" s="16">
         <v>0</v>
       </c>
-      <c r="AB24" s="58"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>130</v>
       </c>
@@ -13030,9 +12466,8 @@
       <c r="AA25" s="16">
         <v>0</v>
       </c>
-      <c r="AB25" s="58"/>
-    </row>
-    <row r="26" spans="1:28" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>132</v>
       </c>
@@ -13062,50 +12497,49 @@
       <c r="J26" s="32">
         <v>0</v>
       </c>
-      <c r="K26" s="72">
-        <v>0</v>
-      </c>
-      <c r="L26" s="72">
-        <v>0</v>
-      </c>
-      <c r="M26" s="72">
-        <v>0</v>
-      </c>
-      <c r="N26" s="72">
-        <v>0</v>
-      </c>
-      <c r="O26" s="72">
-        <v>0</v>
-      </c>
-      <c r="P26" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="72">
-        <v>0</v>
-      </c>
-      <c r="R26" s="72">
-        <v>0</v>
-      </c>
-      <c r="S26" s="72">
-        <v>0</v>
-      </c>
-      <c r="T26" s="72">
-        <v>0</v>
-      </c>
-      <c r="U26" s="72">
-        <v>0</v>
-      </c>
-      <c r="V26" s="72">
-        <v>0</v>
-      </c>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="73"/>
-    </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="71">
+        <v>0</v>
+      </c>
+      <c r="L26" s="71">
+        <v>0</v>
+      </c>
+      <c r="M26" s="71">
+        <v>0</v>
+      </c>
+      <c r="N26" s="71">
+        <v>0</v>
+      </c>
+      <c r="O26" s="71">
+        <v>0</v>
+      </c>
+      <c r="P26" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="71">
+        <v>0</v>
+      </c>
+      <c r="R26" s="71">
+        <v>0</v>
+      </c>
+      <c r="S26" s="71">
+        <v>0</v>
+      </c>
+      <c r="T26" s="71">
+        <v>0</v>
+      </c>
+      <c r="U26" s="71">
+        <v>0</v>
+      </c>
+      <c r="V26" s="71">
+        <v>0</v>
+      </c>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+    </row>
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>168</v>
       </c>
@@ -13172,9 +12606,8 @@
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
-      <c r="AB27" s="58"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>131</v>
       </c>
@@ -13254,9 +12687,8 @@
       <c r="AA28" s="16">
         <v>0</v>
       </c>
-      <c r="AB28" s="58"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -13336,9 +12768,8 @@
       <c r="AA29" s="16">
         <v>0</v>
       </c>
-      <c r="AB29" s="58"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -13418,9 +12849,8 @@
       <c r="AA30" s="16">
         <v>0</v>
       </c>
-      <c r="AB30" s="58"/>
-    </row>
-    <row r="31" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -13490,9 +12920,8 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="58"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="66" t="s">
         <v>69</v>
       </c>
@@ -13570,9 +12999,8 @@
       <c r="AA32" s="16">
         <v>0</v>
       </c>
-      <c r="AB32" s="58"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -13647,9 +13075,8 @@
       <c r="AA33" s="16">
         <v>0</v>
       </c>
-      <c r="AB33" s="58"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>195</v>
       </c>
@@ -13726,9 +13153,8 @@
       <c r="AA34" s="16">
         <v>0</v>
       </c>
-      <c r="AB34" s="58"/>
-    </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -13808,9 +13234,8 @@
       <c r="AA35" s="16">
         <v>0</v>
       </c>
-      <c r="AB35" s="69"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>274</v>
       </c>
@@ -13885,9 +13310,8 @@
       <c r="AA36" s="16">
         <v>0</v>
       </c>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>273</v>
       </c>
@@ -13914,9 +13338,8 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="D38" s="3"/>
       <c r="G38" s="22"/>
@@ -13940,9 +13363,8 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="D39" s="3"/>
       <c r="G39" s="22"/>
@@ -13966,9 +13388,8 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="D40" s="3"/>
       <c r="G40" s="22"/>
@@ -13992,9 +13413,8 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
       <c r="AA40" s="18"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="D41" s="3"/>
       <c r="G41" s="22"/>
@@ -14018,9 +13438,8 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
       <c r="AA41" s="18"/>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="D42" s="3"/>
       <c r="G42" s="22"/>
@@ -14044,9 +13463,8 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
       <c r="AA42" s="18"/>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="D43" s="3"/>
       <c r="G43" s="22"/>
@@ -14070,9 +13488,8 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
       <c r="AA43" s="18"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="D44" s="3"/>
       <c r="G44" s="22"/>
@@ -14096,9 +13513,8 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
       <c r="AA44" s="18"/>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="D45" s="3"/>
       <c r="G45" s="22"/>
@@ -14122,9 +13538,8 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
       <c r="AA45" s="18"/>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C46" s="33"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -14155,302 +13570,286 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
-      <c r="AB46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A20:A26">
+    <cfRule type="expression" dxfId="336" priority="17">
+      <formula>IF($A20="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="18">
+      <formula>IF($A20="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="19">
+      <formula>IF($A20="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="20">
+      <formula>IF($B20=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="332" priority="13">
+      <formula>IF($A35="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="14">
+      <formula>IF($A35="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="15">
+      <formula>IF($A35="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="16">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="533" priority="129">
+    <cfRule type="expression" dxfId="328" priority="129">
       <formula>IF($A46="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="130">
+    <cfRule type="expression" dxfId="327" priority="130">
       <formula>IF($A46="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="131">
+    <cfRule type="expression" dxfId="326" priority="131">
       <formula>IF($A46="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="132">
+    <cfRule type="expression" dxfId="325" priority="132">
       <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A25 A28 H31:H34 J31:O31 J46:O46 N32:O32 H35:L35 H6:AA7 V13:AA15 V18:AA20 V22:AA25 V28:AA30 H9:AA12 H8:AB8 H28:O28 V32:AA36 H36:H46 H22:O26">
-    <cfRule type="expression" dxfId="529" priority="121">
-      <formula>IF($A6="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="528" priority="122">
-      <formula>IF($A6="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="123">
-      <formula>IF($A6="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="124">
-      <formula>IF($B6=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:U25 H27:AA27 I31 I46 J21:AA21 H16:AA17 H13:U15 H18:U18 J19:U20 H30:U30 I36:J36 M36:O36 I37:U45">
-    <cfRule type="expression" dxfId="525" priority="253">
-      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="254">
-      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="255">
-      <formula>IF(#REF!="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="256">
-      <formula>IF($B13=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="521" priority="377">
+    <cfRule type="expression" dxfId="324" priority="377">
       <formula>IF(#REF!="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="378">
+    <cfRule type="expression" dxfId="323" priority="378">
       <formula>IF(#REF!="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="379">
+    <cfRule type="expression" dxfId="322" priority="379">
       <formula>IF(#REF!="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="380">
+    <cfRule type="expression" dxfId="321" priority="380">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="517" priority="49">
-      <formula>IF($A26="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="50">
-      <formula>IF($A26="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="51">
-      <formula>IF($A26="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="52">
-      <formula>IF($B26=1,1)</formula>
+  <conditionalFormatting sqref="H19:I21">
+    <cfRule type="expression" dxfId="320" priority="21">
+      <formula>IF($A19="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="22">
+      <formula>IF($A19="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="23">
+      <formula>IF($A19="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="24">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:U15 H16:AA17 H18:U18 J19:U20 J21:AA21 P22:U25 H27:AA27 H29:U30 I31 I36:J36 M36:O36 I37:U45 I46">
+    <cfRule type="expression" dxfId="316" priority="256">
+      <formula>IF($B13=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:U15 H16:AA17 H18:U18 J19:U20 J21:AA21 P25:U25 H27:AA27 H30:U30 I31 I36:J36 M36:O36 I37:U45 I46">
+    <cfRule type="expression" dxfId="315" priority="253">
+      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="254">
+      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="255">
+      <formula>IF(#REF!="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:U29">
+    <cfRule type="expression" dxfId="312" priority="741">
+      <formula>IF($A15="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="742">
+      <formula>IF($A15="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="743">
+      <formula>IF($A15="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AA12 V13:AA15 V18:AA20 V22:AA25 H22:O26 A28 H28:O28 V28:AA30 J31:O31 H31:H34 N32:O32 V32:AA36 H35:L35 H36:H46 J46:O46">
+    <cfRule type="expression" dxfId="309" priority="121">
+      <formula>IF($A6="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="122">
+      <formula>IF($A6="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="123">
+      <formula>IF($A6="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AA12 V13:AA15 V18:AA20 V22:AA25 H22:O26 A28 H28:O28 V28:AA30 J31:O31 H31:H34 N32:O32 V32:AA45 H35:L35 H36:H46 J46:O46">
+    <cfRule type="expression" dxfId="306" priority="124">
+      <formula>IF($B6=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:M32 I33:S33 I34:K34 K36:L36">
+    <cfRule type="expression" dxfId="305" priority="37">
+      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="38">
+      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="39">
+      <formula>IF(#REF!="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="40">
+      <formula>IF($B32=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="expression" dxfId="301" priority="5">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="6">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="7">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="8">
+      <formula>IF($B3=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:U34 T35:U35 P36:U36">
+    <cfRule type="expression" dxfId="297" priority="29">
+      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="30">
+      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="31">
+      <formula>IF(#REF!="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="32">
+      <formula>IF($B34=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:S35">
+    <cfRule type="expression" dxfId="293" priority="745">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="746">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="747">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="748">
+      <formula>IF($B35=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:U22 P26:AA26">
+    <cfRule type="expression" dxfId="289" priority="717">
+      <formula>IF($A27="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="718">
+      <formula>IF($A27="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="719">
+      <formula>IF($A27="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:U23">
-    <cfRule type="expression" dxfId="513" priority="645">
+    <cfRule type="expression" dxfId="286" priority="645">
       <formula>IF(#REF!="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="646">
+    <cfRule type="expression" dxfId="285" priority="646">
       <formula>IF(#REF!="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="647">
+    <cfRule type="expression" dxfId="284" priority="647">
       <formula>IF(#REF!="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="648">
-      <formula>IF($B23=1,1)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:U24 T33:U33 V37:AA37">
+    <cfRule type="expression" dxfId="283" priority="693">
+      <formula>IF($A13="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="694">
+      <formula>IF($A13="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="695">
+      <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:U28">
-    <cfRule type="expression" dxfId="509" priority="673">
+    <cfRule type="expression" dxfId="280" priority="673">
       <formula>IF(#REF!="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="674">
+    <cfRule type="expression" dxfId="279" priority="674">
       <formula>IF(#REF!="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="675">
+    <cfRule type="expression" dxfId="278" priority="675">
       <formula>IF(#REF!="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="676">
+    <cfRule type="expression" dxfId="277" priority="676">
       <formula>IF($B28=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:M32 I34:K34 I33:S33 K36:L36">
-    <cfRule type="expression" dxfId="505" priority="37">
-      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="38">
-      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="39">
-      <formula>IF(#REF!="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="40">
-      <formula>IF($B32=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:U24 T33:U33 V37:AA37">
-    <cfRule type="expression" dxfId="501" priority="693">
-      <formula>IF($A13="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="694">
-      <formula>IF($A13="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="695">
-      <formula>IF($A13="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="696">
-      <formula>IF($B24=1,1)</formula>
+  <conditionalFormatting sqref="P26:AA26">
+    <cfRule type="expression" dxfId="276" priority="720">
+      <formula>IF($B26=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:AA31 P32:U32">
-    <cfRule type="expression" dxfId="497" priority="697">
+    <cfRule type="expression" dxfId="275" priority="697">
       <formula>IF($A16="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="698">
+    <cfRule type="expression" dxfId="274" priority="698">
       <formula>IF($A16="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="699">
+    <cfRule type="expression" dxfId="273" priority="699">
       <formula>IF($A16="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="700">
+    <cfRule type="expression" dxfId="272" priority="700">
       <formula>IF($B31=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:U34 T35:U35 P36:U36">
-    <cfRule type="expression" dxfId="493" priority="29">
-      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="30">
-      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="31">
-      <formula>IF(#REF!="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="32">
-      <formula>IF($B34=1,1)</formula>
+  <conditionalFormatting sqref="P46:AA46">
+    <cfRule type="expression" dxfId="271" priority="781">
+      <formula>IF($A17="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="782">
+      <formula>IF($A17="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="783">
+      <formula>IF($A17="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="784">
+      <formula>IF($B46=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:I21">
-    <cfRule type="expression" dxfId="489" priority="21">
-      <formula>IF($A19="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="22">
-      <formula>IF($A19="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="23">
-      <formula>IF($A19="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="24">
-      <formula>IF(#REF!=1,1)</formula>
+  <conditionalFormatting sqref="T33:U33">
+    <cfRule type="expression" dxfId="267" priority="696">
+      <formula>IF($B33=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
-    <cfRule type="expression" dxfId="485" priority="17">
-      <formula>IF($A20="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="18">
-      <formula>IF($A20="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="19">
-      <formula>IF($A20="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="482" priority="20">
-      <formula>IF($B20=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="481" priority="13">
-      <formula>IF($A35="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="14">
-      <formula>IF($A35="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="15">
-      <formula>IF($A35="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="16">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="expression" dxfId="477" priority="5">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="6">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="7">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="8">
-      <formula>IF($B3=1,1)</formula>
+  <conditionalFormatting sqref="V38:AA45">
+    <cfRule type="expression" dxfId="266" priority="777">
+      <formula>IF($A28="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="778">
+      <formula>IF($A28="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="779">
+      <formula>IF($A28="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AA3">
-    <cfRule type="expression" dxfId="473" priority="1">
+    <cfRule type="expression" dxfId="263" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="2">
+    <cfRule type="expression" dxfId="262" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="3">
+    <cfRule type="expression" dxfId="261" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="4">
+    <cfRule type="expression" dxfId="260" priority="4">
       <formula>IF($B3=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:AA26 P22:U22">
-    <cfRule type="expression" dxfId="469" priority="717">
-      <formula>IF($A27="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="718">
-      <formula>IF($A27="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="719">
-      <formula>IF($A27="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="720">
-      <formula>IF($B22=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:U29">
-    <cfRule type="expression" dxfId="465" priority="741">
-      <formula>IF($A15="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="742">
-      <formula>IF($A15="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="743">
-      <formula>IF($A15="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="462" priority="744">
-      <formula>IF($B29=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35:S35">
-    <cfRule type="expression" dxfId="461" priority="745">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="746">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="747">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="458" priority="748">
-      <formula>IF($B35=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V38:AA45">
-    <cfRule type="expression" dxfId="457" priority="777">
-      <formula>IF($A28="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="778">
-      <formula>IF($A28="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="779">
-      <formula>IF($A28="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="454" priority="780">
-      <formula>IF($B38=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P46:AA46">
-    <cfRule type="expression" dxfId="453" priority="781">
-      <formula>IF($A17="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="782">
-      <formula>IF($A17="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="783">
-      <formula>IF($A17="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="450" priority="784">
-      <formula>IF($B46=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15168,73 +14567,73 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A9 H8:P9 H6:AA6 H7:J7">
-    <cfRule type="expression" dxfId="419" priority="69">
+  <conditionalFormatting sqref="H6:AA6 H7:J7 H8:P9 A9">
+    <cfRule type="expression" dxfId="259" priority="69">
       <formula>IF($A6="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="70">
+    <cfRule type="expression" dxfId="258" priority="70">
       <formula>IF($A6="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="71">
+    <cfRule type="expression" dxfId="257" priority="71">
       <formula>IF($A6="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="72">
+    <cfRule type="expression" dxfId="256" priority="72">
       <formula>IF($B6=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:AA9 T7:AA7">
-    <cfRule type="expression" dxfId="415" priority="77">
-      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="78">
-      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="79">
-      <formula>IF(#REF!="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="80">
-      <formula>IF($B7=1,1)</formula>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="expression" dxfId="255" priority="5">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="6">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="7">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="8">
+      <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AA5">
-    <cfRule type="expression" dxfId="411" priority="9">
+    <cfRule type="expression" dxfId="251" priority="9">
       <formula>IF($A5="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="10">
+    <cfRule type="expression" dxfId="250" priority="10">
       <formula>IF($A5="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="11">
+    <cfRule type="expression" dxfId="249" priority="11">
       <formula>IF($A5="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="12">
+    <cfRule type="expression" dxfId="248" priority="12">
       <formula>IF($B5=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="expression" dxfId="407" priority="5">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="6">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="7">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="8">
-      <formula>IF($B3=1,1)</formula>
+  <conditionalFormatting sqref="T7:AA7 Q8:AA9">
+    <cfRule type="expression" dxfId="247" priority="77">
+      <formula>IF(#REF!="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="78">
+      <formula>IF(#REF!="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="79">
+      <formula>IF(#REF!="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="80">
+      <formula>IF($B7=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AA3">
-    <cfRule type="expression" dxfId="403" priority="1">
+    <cfRule type="expression" dxfId="243" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="2">
+    <cfRule type="expression" dxfId="242" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="3">
+    <cfRule type="expression" dxfId="241" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="4">
+    <cfRule type="expression" dxfId="240" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15522,7 +14921,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="81"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="56">
@@ -16350,7 +15749,7 @@
       <c r="C15" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="29" t="s">
         <v>88</v>
       </c>
@@ -16419,7 +15818,7 @@
       <c r="C16" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="29" t="s">
         <v>88</v>
       </c>
@@ -18377,143 +17776,143 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A43:C43 A35 A39:B39">
-    <cfRule type="expression" dxfId="369" priority="101">
+  <conditionalFormatting sqref="A35 A39:B39 A43:C43">
+    <cfRule type="expression" dxfId="239" priority="101">
       <formula>IF($A35="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="102">
+    <cfRule type="expression" dxfId="238" priority="102">
       <formula>IF($A35="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="103">
+    <cfRule type="expression" dxfId="237" priority="103">
       <formula>IF($A35="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="104">
+    <cfRule type="expression" dxfId="236" priority="104">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:O33 H35:P36 H40:AA42 Q28:AA36 T39:AA39 H7:AA27 H37:AA38">
-    <cfRule type="expression" dxfId="365" priority="65">
+  <conditionalFormatting sqref="H34:J34">
+    <cfRule type="expression" dxfId="235" priority="25">
+      <formula>IF($A34="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="26">
+      <formula>IF($A34="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="27">
+      <formula>IF($A34="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="28">
+      <formula>IF($B34=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:J39">
+    <cfRule type="expression" dxfId="231" priority="13">
+      <formula>IF($A39="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="14">
+      <formula>IF($A39="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="15">
+      <formula>IF($A39="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="16">
+      <formula>IF($B39=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:AA27 H28:O33 Q28:AA36 H35:P36 H37:AA38 T39:AA39 H40:AA42">
+    <cfRule type="expression" dxfId="227" priority="65">
       <formula>IF($A7="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="66">
+    <cfRule type="expression" dxfId="226" priority="66">
       <formula>IF($A7="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="67">
+    <cfRule type="expression" dxfId="225" priority="67">
       <formula>IF($A7="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="68">
+    <cfRule type="expression" dxfId="224" priority="68">
       <formula>IF($B7=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:M34">
+    <cfRule type="expression" dxfId="223" priority="21">
+      <formula>IF($A34="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="22">
+      <formula>IF($A34="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="23">
+      <formula>IF($A34="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="24">
+      <formula>IF($B34=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="expression" dxfId="219" priority="5">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="6">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="7">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="8">
+      <formula>IF($B3=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:S39">
+    <cfRule type="expression" dxfId="215" priority="9">
+      <formula>IF($A39="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="10">
+      <formula>IF($A39="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="11">
+      <formula>IF($A39="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="12">
+      <formula>IF($B39=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:P34">
+    <cfRule type="expression" dxfId="211" priority="17">
+      <formula>IF($A34="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="18">
+      <formula>IF($A34="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="19">
+      <formula>IF($A34="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="20">
+      <formula>IF($B34=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P33">
-    <cfRule type="expression" dxfId="361" priority="49">
+    <cfRule type="expression" dxfId="207" priority="49">
       <formula>IF($A28="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="50">
+    <cfRule type="expression" dxfId="206" priority="50">
       <formula>IF($A28="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="51">
+    <cfRule type="expression" dxfId="205" priority="51">
       <formula>IF($A28="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="52">
+    <cfRule type="expression" dxfId="204" priority="52">
       <formula>IF($B28=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="expression" dxfId="357" priority="25">
-      <formula>IF($A34="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="26">
-      <formula>IF($A34="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="27">
-      <formula>IF($A34="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="28">
-      <formula>IF($B34=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:M34">
-    <cfRule type="expression" dxfId="353" priority="21">
-      <formula>IF($A34="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="22">
-      <formula>IF($A34="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="23">
-      <formula>IF($A34="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="24">
-      <formula>IF($B34=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:P34">
-    <cfRule type="expression" dxfId="349" priority="17">
-      <formula>IF($A34="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="18">
-      <formula>IF($A34="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="19">
-      <formula>IF($A34="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="20">
-      <formula>IF($B34=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:J39">
-    <cfRule type="expression" dxfId="345" priority="13">
-      <formula>IF($A39="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="14">
-      <formula>IF($A39="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="15">
-      <formula>IF($A39="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="16">
-      <formula>IF($B39=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:S39">
-    <cfRule type="expression" dxfId="341" priority="9">
-      <formula>IF($A39="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="10">
-      <formula>IF($A39="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="11">
-      <formula>IF($A39="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="12">
-      <formula>IF($B39=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="expression" dxfId="337" priority="5">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="6">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="7">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="8">
-      <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AA3">
-    <cfRule type="expression" dxfId="333" priority="1">
+    <cfRule type="expression" dxfId="203" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="2">
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="3">
+    <cfRule type="expression" dxfId="201" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="4">
+    <cfRule type="expression" dxfId="200" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18646,7 +18045,7 @@
         <f>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</f>
         <v>973</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="73">
         <f t="shared" ref="H2:O2" si="0">H3-H4</f>
         <v>-25</v>
       </c>
@@ -18736,7 +18135,7 @@
         <f>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</f>
         <v>3228</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="73">
         <v>168</v>
       </c>
       <c r="I3" s="68">
@@ -18745,31 +18144,31 @@
       <c r="J3" s="68">
         <v>176</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="74">
         <v>176</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="74">
         <v>168</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="74">
         <v>184</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="74">
         <v>160</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="74">
         <v>120</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="74">
         <v>128</v>
       </c>
-      <c r="Q3" s="76">
+      <c r="Q3" s="74">
         <v>160</v>
       </c>
-      <c r="R3" s="76">
+      <c r="R3" s="74">
         <v>168</v>
       </c>
-      <c r="S3" s="76">
+      <c r="S3" s="74">
         <v>160</v>
       </c>
       <c r="T3" s="68">
@@ -18781,19 +18180,19 @@
       <c r="V3" s="68">
         <v>165</v>
       </c>
-      <c r="W3" s="76">
+      <c r="W3" s="74">
         <v>176</v>
       </c>
-      <c r="X3" s="76">
+      <c r="X3" s="74">
         <v>168</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="Y3" s="74">
         <v>184</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="74">
         <v>160</v>
       </c>
-      <c r="AA3" s="76">
+      <c r="AA3" s="74">
         <v>120</v>
       </c>
       <c r="AB3" s="13"/>
@@ -18811,7 +18210,7 @@
         <f>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</f>
         <v>2255</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="75">
         <f>SUM(H5:H53)</f>
         <v>193</v>
       </c>
@@ -18913,7 +18312,7 @@
         <f>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</f>
         <v>507</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="75">
         <v>27</v>
       </c>
       <c r="I5" s="68">
@@ -19369,7 +18768,7 @@
       <c r="C11" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="77">
         <v>2024</v>
       </c>
       <c r="E11" s="29" t="s">
@@ -19394,52 +18793,52 @@
       <c r="K11" s="40">
         <v>0</v>
       </c>
-      <c r="L11" s="74">
-        <v>0</v>
-      </c>
-      <c r="M11" s="74">
-        <v>0</v>
-      </c>
-      <c r="N11" s="74">
-        <v>0</v>
-      </c>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-      <c r="P11" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="74">
-        <v>0</v>
-      </c>
-      <c r="R11" s="74">
-        <v>0</v>
-      </c>
-      <c r="S11" s="74">
-        <v>0</v>
-      </c>
-      <c r="T11" s="74">
-        <v>0</v>
-      </c>
-      <c r="U11" s="74">
-        <v>0</v>
-      </c>
-      <c r="V11" s="74">
-        <v>0</v>
-      </c>
-      <c r="W11" s="74">
-        <v>0</v>
-      </c>
-      <c r="X11" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="74">
+      <c r="L11" s="72">
+        <v>0</v>
+      </c>
+      <c r="M11" s="72">
+        <v>0</v>
+      </c>
+      <c r="N11" s="72">
+        <v>0</v>
+      </c>
+      <c r="O11" s="72">
+        <v>0</v>
+      </c>
+      <c r="P11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="72">
+        <v>0</v>
+      </c>
+      <c r="R11" s="72">
+        <v>0</v>
+      </c>
+      <c r="S11" s="72">
+        <v>0</v>
+      </c>
+      <c r="T11" s="72">
+        <v>0</v>
+      </c>
+      <c r="U11" s="72">
+        <v>0</v>
+      </c>
+      <c r="V11" s="72">
+        <v>0</v>
+      </c>
+      <c r="W11" s="72">
+        <v>0</v>
+      </c>
+      <c r="X11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="72">
         <v>0</v>
       </c>
       <c r="AB11" s="29"/>
@@ -19454,7 +18853,7 @@
       <c r="C12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="77">
         <v>20</v>
       </c>
       <c r="E12" s="29" t="s">
@@ -19479,52 +18878,52 @@
       <c r="K12" s="40">
         <v>0</v>
       </c>
-      <c r="L12" s="74">
-        <v>0</v>
-      </c>
-      <c r="M12" s="74">
-        <v>0</v>
-      </c>
-      <c r="N12" s="74">
-        <v>0</v>
-      </c>
-      <c r="O12" s="74">
-        <v>0</v>
-      </c>
-      <c r="P12" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="74">
-        <v>0</v>
-      </c>
-      <c r="R12" s="74">
-        <v>0</v>
-      </c>
-      <c r="S12" s="74">
-        <v>0</v>
-      </c>
-      <c r="T12" s="74">
-        <v>0</v>
-      </c>
-      <c r="U12" s="74">
-        <v>0</v>
-      </c>
-      <c r="V12" s="74">
-        <v>0</v>
-      </c>
-      <c r="W12" s="74">
-        <v>0</v>
-      </c>
-      <c r="X12" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="74">
+      <c r="L12" s="72">
+        <v>0</v>
+      </c>
+      <c r="M12" s="72">
+        <v>0</v>
+      </c>
+      <c r="N12" s="72">
+        <v>0</v>
+      </c>
+      <c r="O12" s="72">
+        <v>0</v>
+      </c>
+      <c r="P12" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="72">
+        <v>0</v>
+      </c>
+      <c r="R12" s="72">
+        <v>0</v>
+      </c>
+      <c r="S12" s="72">
+        <v>0</v>
+      </c>
+      <c r="T12" s="72">
+        <v>0</v>
+      </c>
+      <c r="U12" s="72">
+        <v>0</v>
+      </c>
+      <c r="V12" s="72">
+        <v>0</v>
+      </c>
+      <c r="W12" s="72">
+        <v>0</v>
+      </c>
+      <c r="X12" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="72">
         <v>0</v>
       </c>
       <c r="AB12" s="29"/>
@@ -19709,7 +19108,7 @@
       <c r="C15" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E15" s="29" t="s">
@@ -19734,34 +19133,34 @@
       <c r="K15" s="40">
         <v>0</v>
       </c>
-      <c r="L15" s="74">
-        <v>0</v>
-      </c>
-      <c r="M15" s="74">
-        <v>0</v>
-      </c>
-      <c r="N15" s="74">
-        <v>0</v>
-      </c>
-      <c r="O15" s="74">
-        <v>0</v>
-      </c>
-      <c r="P15" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74">
-        <v>0</v>
-      </c>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
+      <c r="L15" s="72">
+        <v>0</v>
+      </c>
+      <c r="M15" s="72">
+        <v>0</v>
+      </c>
+      <c r="N15" s="72">
+        <v>0</v>
+      </c>
+      <c r="O15" s="72">
+        <v>0</v>
+      </c>
+      <c r="P15" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="72">
+        <v>0</v>
+      </c>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
       <c r="AB15" s="29"/>
     </row>
     <row r="16" spans="1:28" s="31" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -19774,7 +19173,7 @@
       <c r="C16" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -19799,34 +19198,34 @@
       <c r="K16" s="40">
         <v>0</v>
       </c>
-      <c r="L16" s="74">
-        <v>0</v>
-      </c>
-      <c r="M16" s="74">
-        <v>0</v>
-      </c>
-      <c r="N16" s="74">
-        <v>0</v>
-      </c>
-      <c r="O16" s="74">
-        <v>0</v>
-      </c>
-      <c r="P16" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74">
-        <v>0</v>
-      </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
+      <c r="L16" s="72">
+        <v>0</v>
+      </c>
+      <c r="M16" s="72">
+        <v>0</v>
+      </c>
+      <c r="N16" s="72">
+        <v>0</v>
+      </c>
+      <c r="O16" s="72">
+        <v>0</v>
+      </c>
+      <c r="P16" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="72">
+        <v>0</v>
+      </c>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
       <c r="AB16" s="29"/>
     </row>
     <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -19924,7 +19323,7 @@
       <c r="C18" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E18" s="29" t="s">
@@ -19949,34 +19348,34 @@
       <c r="K18" s="40">
         <v>0</v>
       </c>
-      <c r="L18" s="74">
-        <v>0</v>
-      </c>
-      <c r="M18" s="74">
-        <v>0</v>
-      </c>
-      <c r="N18" s="74">
-        <v>0</v>
-      </c>
-      <c r="O18" s="74">
-        <v>0</v>
-      </c>
-      <c r="P18" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74">
-        <v>0</v>
-      </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
+      <c r="L18" s="72">
+        <v>0</v>
+      </c>
+      <c r="M18" s="72">
+        <v>0</v>
+      </c>
+      <c r="N18" s="72">
+        <v>0</v>
+      </c>
+      <c r="O18" s="72">
+        <v>0</v>
+      </c>
+      <c r="P18" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="72">
+        <v>0</v>
+      </c>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
       <c r="AB18" s="29"/>
     </row>
     <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -20074,7 +19473,7 @@
       <c r="C20" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="29" t="s">
@@ -20099,34 +19498,34 @@
       <c r="K20" s="40">
         <v>0</v>
       </c>
-      <c r="L20" s="74">
-        <v>0</v>
-      </c>
-      <c r="M20" s="74">
-        <v>0</v>
-      </c>
-      <c r="N20" s="74">
-        <v>0</v>
-      </c>
-      <c r="O20" s="74">
-        <v>0</v>
-      </c>
-      <c r="P20" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="74">
-        <v>0</v>
-      </c>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
+      <c r="L20" s="72">
+        <v>0</v>
+      </c>
+      <c r="M20" s="72">
+        <v>0</v>
+      </c>
+      <c r="N20" s="72">
+        <v>0</v>
+      </c>
+      <c r="O20" s="72">
+        <v>0</v>
+      </c>
+      <c r="P20" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="72">
+        <v>0</v>
+      </c>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
       <c r="AB20" s="29"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -20222,7 +19621,7 @@
       <c r="C22" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E22" s="29" t="s">
@@ -20249,34 +19648,34 @@
       <c r="K22" s="40">
         <v>0</v>
       </c>
-      <c r="L22" s="74">
-        <v>0</v>
-      </c>
-      <c r="M22" s="74">
-        <v>0</v>
-      </c>
-      <c r="N22" s="74">
-        <v>0</v>
-      </c>
-      <c r="O22" s="74">
-        <v>0</v>
-      </c>
-      <c r="P22" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74">
-        <v>0</v>
-      </c>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
+      <c r="L22" s="72">
+        <v>0</v>
+      </c>
+      <c r="M22" s="72">
+        <v>0</v>
+      </c>
+      <c r="N22" s="72">
+        <v>0</v>
+      </c>
+      <c r="O22" s="72">
+        <v>0</v>
+      </c>
+      <c r="P22" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="72">
+        <v>0</v>
+      </c>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
       <c r="AB22" s="29" t="s">
         <v>67</v>
       </c>
@@ -20546,7 +19945,7 @@
       <c r="C26" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="43" t="s">
         <v>22</v>
       </c>
@@ -20569,34 +19968,34 @@
       <c r="K26" s="45">
         <v>0</v>
       </c>
-      <c r="L26" s="78">
-        <v>0</v>
-      </c>
-      <c r="M26" s="78">
-        <v>0</v>
-      </c>
-      <c r="N26" s="78">
-        <v>0</v>
-      </c>
-      <c r="O26" s="78">
-        <v>0</v>
-      </c>
-      <c r="P26" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="78">
-        <v>0</v>
-      </c>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
+      <c r="L26" s="76">
+        <v>0</v>
+      </c>
+      <c r="M26" s="76">
+        <v>0</v>
+      </c>
+      <c r="N26" s="76">
+        <v>0</v>
+      </c>
+      <c r="O26" s="76">
+        <v>0</v>
+      </c>
+      <c r="P26" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="76">
+        <v>0</v>
+      </c>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
       <c r="AB26" s="43"/>
     </row>
     <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -21332,7 +20731,7 @@
       <c r="C36" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="77" t="s">
         <v>234</v>
       </c>
       <c r="E36" s="29" t="s">
@@ -21355,44 +20754,44 @@
       <c r="K36" s="40">
         <v>0</v>
       </c>
-      <c r="L36" s="74">
-        <v>0</v>
-      </c>
-      <c r="M36" s="74">
-        <v>0</v>
-      </c>
-      <c r="N36" s="74">
-        <v>0</v>
-      </c>
-      <c r="O36" s="74">
-        <v>0</v>
-      </c>
-      <c r="P36" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="74">
-        <v>0</v>
-      </c>
-      <c r="R36" s="74">
-        <v>0</v>
-      </c>
-      <c r="S36" s="74">
-        <v>0</v>
-      </c>
-      <c r="T36" s="74">
-        <v>0</v>
-      </c>
-      <c r="U36" s="74">
-        <v>0</v>
-      </c>
-      <c r="V36" s="74">
-        <v>0</v>
-      </c>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
+      <c r="L36" s="72">
+        <v>0</v>
+      </c>
+      <c r="M36" s="72">
+        <v>0</v>
+      </c>
+      <c r="N36" s="72">
+        <v>0</v>
+      </c>
+      <c r="O36" s="72">
+        <v>0</v>
+      </c>
+      <c r="P36" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="72">
+        <v>0</v>
+      </c>
+      <c r="R36" s="72">
+        <v>0</v>
+      </c>
+      <c r="S36" s="72">
+        <v>0</v>
+      </c>
+      <c r="T36" s="72">
+        <v>0</v>
+      </c>
+      <c r="U36" s="72">
+        <v>0</v>
+      </c>
+      <c r="V36" s="72">
+        <v>0</v>
+      </c>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
       <c r="AB36" s="29"/>
     </row>
     <row r="37" spans="1:28" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22741,535 +22140,463 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H9:Q9 A24:B25 H10:O18 P15:AA16 A21:B21 P10:Q10 P14:Q14 P18:AA18 H20:AA20 H19:Q19 H21:Q21 H27:Q29 H53:AA53 A39:B39 H37:AA37 H47:R47 H38:N38 K17:Q17 H22:AA26 H39:AA39 H7:Q7 P11:AA12 L48:O48 L50:O52">
-    <cfRule type="expression" dxfId="299" priority="317">
-      <formula>IF($A7="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="318">
-      <formula>IF($A7="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="319">
-      <formula>IF($A7="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="320">
+  <conditionalFormatting sqref="A48:A52">
+    <cfRule type="expression" dxfId="199" priority="89">
+      <formula>IF($A48="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="90">
+      <formula>IF($A48="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="91">
+      <formula>IF($A48="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="92">
+      <formula>IF($B48=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B41 A42:A46">
+    <cfRule type="expression" dxfId="195" priority="41">
+      <formula>IF($A41="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="42">
+      <formula>IF($A41="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="43">
+      <formula>IF($A41="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="44">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:AA22 P11:AA11">
-    <cfRule type="expression" dxfId="295" priority="265">
-      <formula>IF($A11="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="266">
-      <formula>IF($A11="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="267">
-      <formula>IF($A11="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="268">
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="191" priority="37">
+      <formula>IF($A38="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="38">
+      <formula>IF($A38="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="39">
+      <formula>IF($A38="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="40">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:AA12">
-    <cfRule type="expression" dxfId="291" priority="249">
-      <formula>IF($A12="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="250">
-      <formula>IF($A12="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="251">
-      <formula>IF($A12="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="252">
+  <conditionalFormatting sqref="B42:B47">
+    <cfRule type="expression" dxfId="187" priority="33">
+      <formula>IF($A42="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="34">
+      <formula>IF($A42="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="35">
+      <formula>IF($A42="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="36">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:Q13">
-    <cfRule type="expression" dxfId="287" priority="233">
-      <formula>IF($A13="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="234">
-      <formula>IF($A13="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="235">
-      <formula>IF($A13="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="236">
+  <conditionalFormatting sqref="H48:I48 P48:R52 H50:I52">
+    <cfRule type="expression" dxfId="183" priority="81">
+      <formula>IF($A48="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="82">
+      <formula>IF($A48="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="83">
+      <formula>IF($A48="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="84">
+      <formula>IF($B48=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:J33">
+    <cfRule type="expression" dxfId="179" priority="165">
+      <formula>IF($A33="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="166">
+      <formula>IF($A33="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="167">
+      <formula>IF($A33="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="168">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:K40">
+    <cfRule type="expression" dxfId="175" priority="61">
+      <formula>IF($A40="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="62">
+      <formula>IF($A40="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="63">
+      <formula>IF($A40="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="64">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:O8">
-    <cfRule type="expression" dxfId="283" priority="177">
+    <cfRule type="expression" dxfId="171" priority="177">
       <formula>IF($A8="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="178">
+    <cfRule type="expression" dxfId="170" priority="178">
       <formula>IF($A8="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="179">
+    <cfRule type="expression" dxfId="169" priority="179">
       <formula>IF($A8="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="180">
+    <cfRule type="expression" dxfId="168" priority="180">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:Q7 H9:Q9 P10:Q10 H10:O18 P11:AA12 P15:AA16 K17:Q17 P18:AA18 H19:Q19 H20:AA20 A21:B21 H21:Q21 H22:AA26 A24:B25 H27:Q29 H38:N38 A39:B39 H39:AA39 H47:R47 L48:O48 L50:O52 H53:AA53">
+    <cfRule type="expression" dxfId="167" priority="318">
+      <formula>IF($A7="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="319">
+      <formula>IF($A7="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:Q7 H9:Q9 P10:Q10 H10:O18 P15:AA16 K17:Q17 P18:AA18 H19:Q19 H20:AA20 A21:B21 H21:Q21 H22:AA26 A24:B25 H27:Q29 H38:N38 A39:B39 H39:AA39 H47:R47 L48:O48 L50:O52 H53:AA53">
+    <cfRule type="expression" dxfId="165" priority="320">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:R41 H42:M45 H46:J46">
+    <cfRule type="expression" dxfId="164" priority="45">
+      <formula>IF($A41="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="46">
+      <formula>IF($A41="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="47">
+      <formula>IF($A41="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="48">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:AA26 P11:AA12 H7:Q7 H9:Q9 P10:Q10 H10:O18 P15:AA16 K17:Q17 P18:AA18 H19:Q19 H20:AA20 A21:B21 H21:Q21 A24:B25 H27:Q29 H38:N38 A39:B39 H39:AA39 H47:R47 L48:O48 L50:O52 H53:AA53">
+    <cfRule type="expression" dxfId="160" priority="317">
+      <formula>IF($A7="Esforço total atribuído",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:AA30">
+    <cfRule type="expression" dxfId="159" priority="161">
+      <formula>IF($A30="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="162">
+      <formula>IF($A30="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="163">
+      <formula>IF($A30="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:AA32">
+    <cfRule type="expression" dxfId="156" priority="152">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:AA32">
+    <cfRule type="expression" dxfId="155" priority="149">
+      <formula>IF($A31="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="150">
+      <formula>IF($A31="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="151">
+      <formula>IF($A31="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:AA37 O38:AA38">
+    <cfRule type="expression" dxfId="152" priority="121">
+      <formula>IF($A34="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="122">
+      <formula>IF($A34="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="123">
+      <formula>IF($A34="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="124">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:K48 J50:K52">
+    <cfRule type="expression" dxfId="148" priority="77">
+      <formula>IF($A48="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="78">
+      <formula>IF($A48="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="79">
+      <formula>IF($A48="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="80">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="expression" dxfId="144" priority="5">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="6">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="7">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="8">
+      <formula>IF($B3=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:AA33">
+    <cfRule type="expression" dxfId="140" priority="73">
+      <formula>IF($A33="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="74">
+      <formula>IF($A33="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="75">
+      <formula>IF($A33="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="76">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:AA46">
+    <cfRule type="expression" dxfId="136" priority="17">
+      <formula>IF($A46="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="18">
+      <formula>IF($A46="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="19">
+      <formula>IF($A46="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="20">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:P40">
+    <cfRule type="expression" dxfId="132" priority="49">
+      <formula>IF($A40="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="50">
+      <formula>IF($A40="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="51">
+      <formula>IF($A40="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="52">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="expression" dxfId="128" priority="13">
+      <formula>IF($A46="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="14">
+      <formula>IF($A46="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="15">
+      <formula>IF($A46="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="16">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46:O46">
+    <cfRule type="expression" dxfId="124" priority="9">
+      <formula>IF($A46="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="10">
+      <formula>IF($A46="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="11">
+      <formula>IF($A46="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="12">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:R45">
+    <cfRule type="expression" dxfId="120" priority="21">
+      <formula>IF($A42="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="22">
+      <formula>IF($A42="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="23">
+      <formula>IF($A42="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="24">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
+    <cfRule type="expression" dxfId="116" priority="157">
+      <formula>IF($A30="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="158">
+      <formula>IF($A30="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="159">
+      <formula>IF($A30="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="160">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="expression" dxfId="279" priority="173">
+    <cfRule type="expression" dxfId="112" priority="173">
       <formula>IF($A8="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="174">
+    <cfRule type="expression" dxfId="111" priority="174">
       <formula>IF($A8="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="175">
+    <cfRule type="expression" dxfId="110" priority="175">
       <formula>IF($A8="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="176">
+    <cfRule type="expression" dxfId="109" priority="176">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:AA34">
-    <cfRule type="expression" dxfId="275" priority="169">
-      <formula>IF($A34="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="170">
-      <formula>IF($A34="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="171">
-      <formula>IF($A34="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="172">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33 H32:AA32">
-    <cfRule type="expression" dxfId="271" priority="165">
-      <formula>IF($A32="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="166">
-      <formula>IF($A32="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="167">
-      <formula>IF($A32="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="168">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:AA30">
-    <cfRule type="expression" dxfId="267" priority="161">
-      <formula>IF($A30="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="162">
-      <formula>IF($A30="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="163">
-      <formula>IF($A30="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="164">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="263" priority="157">
-      <formula>IF($A30="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="158">
-      <formula>IF($A30="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="159">
-      <formula>IF($A30="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="160">
+  <conditionalFormatting sqref="P13:Q14">
+    <cfRule type="expression" dxfId="108" priority="233">
+      <formula>IF($A13="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="234">
+      <formula>IF($A13="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="235">
+      <formula>IF($A13="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="236">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="259" priority="153">
+    <cfRule type="expression" dxfId="104" priority="153">
       <formula>IF($A30="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="154">
+    <cfRule type="expression" dxfId="103" priority="154">
       <formula>IF($A30="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="155">
+    <cfRule type="expression" dxfId="102" priority="155">
       <formula>IF($A30="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="156">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:AA31">
-    <cfRule type="expression" dxfId="255" priority="149">
-      <formula>IF($A31="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="150">
-      <formula>IF($A31="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="151">
-      <formula>IF($A31="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="152">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:AA36">
-    <cfRule type="expression" dxfId="251" priority="125">
-      <formula>IF($A36="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="126">
-      <formula>IF($A36="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="127">
-      <formula>IF($A36="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="128">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:AA35 O38:AA38">
-    <cfRule type="expression" dxfId="247" priority="121">
-      <formula>IF($A35="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="122">
-      <formula>IF($A35="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="123">
-      <formula>IF($A35="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="124">
+    <cfRule type="expression" dxfId="101" priority="156">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35 P38:Q38">
-    <cfRule type="expression" dxfId="243" priority="117">
+    <cfRule type="expression" dxfId="100" priority="117">
       <formula>IF($A35="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="118">
+    <cfRule type="expression" dxfId="99" priority="118">
       <formula>IF($A35="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="119">
+    <cfRule type="expression" dxfId="98" priority="119">
       <formula>IF($A35="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="120">
+    <cfRule type="expression" dxfId="97" priority="120">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:AA17 R19:AA19 R21:AA21 R27:AA29 R7:AA10 R13:AA14">
-    <cfRule type="expression" dxfId="239" priority="93">
-      <formula>IF($A7="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="94">
-      <formula>IF($A7="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="95">
-      <formula>IF($A7="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="96">
+  <conditionalFormatting sqref="P11:AA12">
+    <cfRule type="expression" dxfId="96" priority="249">
+      <formula>IF($A11="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="250">
+      <formula>IF($A11="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="251">
+      <formula>IF($A11="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="252">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A52">
-    <cfRule type="expression" dxfId="235" priority="89">
-      <formula>IF($A48="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="90">
-      <formula>IF($A48="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="91">
-      <formula>IF($A48="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="92">
-      <formula>IF($B48=1,1)</formula>
+  <conditionalFormatting sqref="P22:AA22">
+    <cfRule type="expression" dxfId="92" priority="265">
+      <formula>IF($A22="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="266">
+      <formula>IF($A22="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="267">
+      <formula>IF($A22="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="268">
+      <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:I48 H50:I52 P48:R52">
-    <cfRule type="expression" dxfId="231" priority="81">
-      <formula>IF($A48="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="82">
-      <formula>IF($A48="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="83">
-      <formula>IF($A48="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="84">
-      <formula>IF($B48=1,1)</formula>
+  <conditionalFormatting sqref="Q40:AA40 S41:AA45 S47:AA47">
+    <cfRule type="expression" dxfId="88" priority="53">
+      <formula>IF($A40="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="54">
+      <formula>IF($A40="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="55">
+      <formula>IF($A40="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="56">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="57">
+      <formula>IF($A40="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="58">
+      <formula>IF($A40="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="59">
+      <formula>IF($A40="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48:AA52">
-    <cfRule type="expression" dxfId="227" priority="85">
+    <cfRule type="expression" dxfId="81" priority="85">
       <formula>IF(#REF!="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="86">
+    <cfRule type="expression" dxfId="80" priority="86">
       <formula>IF(#REF!="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="87">
+    <cfRule type="expression" dxfId="79" priority="87">
       <formula>IF(#REF!="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="88">
+    <cfRule type="expression" dxfId="78" priority="88">
       <formula>IF($B48=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:K48 J50:K52">
-    <cfRule type="expression" dxfId="223" priority="77">
-      <formula>IF($A48="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="78">
-      <formula>IF($A48="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="79">
-      <formula>IF($A48="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="80">
+  <conditionalFormatting sqref="R7:AA10 R13:AA14 R17:AA17 R19:AA19 R21:AA21 R27:AA29">
+    <cfRule type="expression" dxfId="77" priority="93">
+      <formula>IF($A7="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="94">
+      <formula>IF($A7="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="95">
+      <formula>IF($A7="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="96">
       <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:AA33">
-    <cfRule type="expression" dxfId="219" priority="73">
-      <formula>IF($A33="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="74">
-      <formula>IF($A33="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="75">
-      <formula>IF($A33="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="76">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="215" priority="69">
-      <formula>IF($A47="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="70">
-      <formula>IF($A47="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="71">
-      <formula>IF($A47="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="72">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:K40">
-    <cfRule type="expression" dxfId="211" priority="61">
-      <formula>IF($A40="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="62">
-      <formula>IF($A40="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="63">
-      <formula>IF($A40="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="64">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:AA40 S47:AA47 S41:AA45">
-    <cfRule type="expression" dxfId="207" priority="57">
-      <formula>IF($A40="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="58">
-      <formula>IF($A40="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="59">
-      <formula>IF($A40="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="60">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:AA40 S47:AA47 S41:AA45">
-    <cfRule type="expression" dxfId="203" priority="53">
-      <formula>IF($A40="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="54">
-      <formula>IF($A40="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="55">
-      <formula>IF($A40="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="56">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40:P40">
-    <cfRule type="expression" dxfId="199" priority="49">
-      <formula>IF($A40="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="50">
-      <formula>IF($A40="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="51">
-      <formula>IF($A40="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="52">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:R41 H42:M45 H46:J46">
-    <cfRule type="expression" dxfId="195" priority="45">
-      <formula>IF($A41="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="46">
-      <formula>IF($A41="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="47">
-      <formula>IF($A41="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="48">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B41 A42:A46">
-    <cfRule type="expression" dxfId="191" priority="41">
-      <formula>IF($A41="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="42">
-      <formula>IF($A41="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="43">
-      <formula>IF($A41="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="44">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="187" priority="37">
-      <formula>IF($A38="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="38">
-      <formula>IF($A38="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="39">
-      <formula>IF($A38="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="40">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B46">
-    <cfRule type="expression" dxfId="183" priority="33">
-      <formula>IF($A42="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="34">
-      <formula>IF($A42="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="35">
-      <formula>IF($A42="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="36">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:R42">
-    <cfRule type="expression" dxfId="179" priority="29">
-      <formula>IF($A42="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="30">
-      <formula>IF($A42="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="31">
-      <formula>IF($A42="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="32">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43:R43">
-    <cfRule type="expression" dxfId="175" priority="25">
-      <formula>IF($A43="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="26">
-      <formula>IF($A43="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="27">
-      <formula>IF($A43="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="28">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:R45">
-    <cfRule type="expression" dxfId="171" priority="21">
-      <formula>IF($A44="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="22">
-      <formula>IF($A44="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="23">
-      <formula>IF($A44="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:AA46">
-    <cfRule type="expression" dxfId="167" priority="17">
-      <formula>IF($A46="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="18">
-      <formula>IF($A46="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="19">
-      <formula>IF($A46="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="20">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="163" priority="13">
-      <formula>IF($A46="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="14">
-      <formula>IF($A46="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="15">
-      <formula>IF($A46="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="16">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46:O46">
-    <cfRule type="expression" dxfId="159" priority="9">
-      <formula>IF($A46="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="10">
-      <formula>IF($A46="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="11">
-      <formula>IF($A46="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="12">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="expression" dxfId="155" priority="5">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="6">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="7">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="8">
-      <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AA3">
-    <cfRule type="expression" dxfId="151" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="3">
+    <cfRule type="expression" dxfId="71" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23461,29 +22788,29 @@
         <f>SUM(Tabela132[[#This Row],[set/24]:[jul/25]])</f>
         <v>1656</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="74">
         <f>168/2</f>
         <v>84</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="74">
         <v>184</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="74">
         <v>160</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="74">
         <v>120</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="74">
         <v>128</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="74">
         <v>160</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="74">
         <v>168</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="74">
         <v>160</v>
       </c>
       <c r="P3" s="68">
@@ -23495,19 +22822,19 @@
       <c r="R3" s="68">
         <v>165</v>
       </c>
-      <c r="S3" s="76">
+      <c r="S3" s="74">
         <v>176</v>
       </c>
-      <c r="T3" s="76">
+      <c r="T3" s="74">
         <v>168</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="74">
         <v>184</v>
       </c>
-      <c r="V3" s="76">
+      <c r="V3" s="74">
         <v>160</v>
       </c>
-      <c r="W3" s="76">
+      <c r="W3" s="74">
         <v>120</v>
       </c>
       <c r="X3" s="13"/>
@@ -25790,284 +25117,118 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="Q13:W23 H36:K36 H17 H18:I18 H21:P23 H19 Q36:W36 H35:W35 H24:L28 M34:W34 H31:W33 H20:J20 H7:W12 H13:K16 M24:W30 H29:K30">
-    <cfRule type="expression" dxfId="117" priority="225">
+  <conditionalFormatting sqref="A16:B16 J20:K20">
+    <cfRule type="expression" dxfId="69" priority="93">
+      <formula>IF($A16="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="94">
+      <formula>IF($A16="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="95">
+      <formula>IF($A16="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="96">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B20">
+    <cfRule type="expression" dxfId="65" priority="49">
+      <formula>IF($A18="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="50">
+      <formula>IF($A18="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="51">
+      <formula>IF($A18="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="52">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34 H34:L34">
+    <cfRule type="expression" dxfId="61" priority="9">
+      <formula>IF($A34="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="10">
+      <formula>IF($A34="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="11">
+      <formula>IF($A34="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="12">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:O3">
+    <cfRule type="expression" dxfId="57" priority="25">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="26">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="27">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="28">
+      <formula>IF($B3=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:W12 H13:K16 Q13:W23 H17 H18:I18 H19 H20:J20 H21:P23 H24:L28 M24:W30 H29:K30 H31:W33 M34:W34 H35:W35 H36:K36 Q36:W36">
+    <cfRule type="expression" dxfId="53" priority="226">
+      <formula>IF($A7="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="227">
+      <formula>IF($A7="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="228">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:W12 H21:P23 H13:K16 H20:J20 Q13:W23 H17 H18:I18 H19 H24:L28 M24:W30 H29:K30 H31:W33 M34:W34 H35:W35 H36:K36 Q36:W36">
+    <cfRule type="expression" dxfId="50" priority="225">
       <formula>IF($A7="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="226">
-      <formula>IF($A7="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="227">
-      <formula>IF($A7="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="228">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N12">
-    <cfRule type="expression" dxfId="113" priority="173">
-      <formula>IF($A12="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="174">
-      <formula>IF($A12="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="175">
-      <formula>IF($A12="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="176">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="109" priority="145">
-      <formula>IF($A21="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="146">
-      <formula>IF($A21="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="147">
-      <formula>IF($A21="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="148">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:P13">
-    <cfRule type="expression" dxfId="105" priority="117">
-      <formula>IF($A13="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="118">
-      <formula>IF($A13="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="119">
-      <formula>IF($A13="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="120">
+  <conditionalFormatting sqref="I17:P17 I19:L19">
+    <cfRule type="expression" dxfId="49" priority="73">
+      <formula>IF($A17="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="74">
+      <formula>IF($A17="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="75">
+      <formula>IF($A17="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="76">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="expression" dxfId="101" priority="109">
+    <cfRule type="expression" dxfId="45" priority="109">
       <formula>IF($A14="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="110">
+    <cfRule type="expression" dxfId="44" priority="110">
       <formula>IF($A14="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="111">
+    <cfRule type="expression" dxfId="43" priority="111">
       <formula>IF($A14="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="112">
+    <cfRule type="expression" dxfId="42" priority="112">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:P14">
-    <cfRule type="expression" dxfId="97" priority="105">
-      <formula>IF($A14="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="106">
-      <formula>IF($A14="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="107">
-      <formula>IF($A14="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="108">
+  <conditionalFormatting sqref="J17:K18 I19:K19">
+    <cfRule type="expression" dxfId="41" priority="69">
+      <formula>IF($A17="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="70">
+      <formula>IF($A17="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="71">
+      <formula>IF($A17="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="72">
       <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:P15">
-    <cfRule type="expression" dxfId="93" priority="97">
-      <formula>IF($A15="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="98">
-      <formula>IF($A15="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="99">
-      <formula>IF($A15="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="100">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16 J18:K18 J20:K20">
-    <cfRule type="expression" dxfId="89" priority="93">
-      <formula>IF($A16="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94">
-      <formula>IF($A16="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="95">
-      <formula>IF($A16="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="96">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:P16 L18 L20">
-    <cfRule type="expression" dxfId="85" priority="89">
-      <formula>IF($A16="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90">
-      <formula>IF($A16="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="91">
-      <formula>IF($A16="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:P36">
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>IF($A36="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
-      <formula>IF($A36="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="83">
-      <formula>IF($A36="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:P17 I19:L19">
-    <cfRule type="expression" dxfId="77" priority="73">
-      <formula>IF($A17="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74">
-      <formula>IF($A17="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75">
-      <formula>IF($A17="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:K17 I19:K19">
-    <cfRule type="expression" dxfId="73" priority="69">
-      <formula>IF($A17="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="70">
-      <formula>IF($A17="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="71">
-      <formula>IF($A17="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="69" priority="65">
-      <formula>IF($A18="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="66">
-      <formula>IF($A18="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67">
-      <formula>IF($A18="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:P18">
-    <cfRule type="expression" dxfId="65" priority="61">
-      <formula>IF($A18="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
-      <formula>IF($A18="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>IF($A18="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:P18">
-    <cfRule type="expression" dxfId="61" priority="57">
-      <formula>IF($A18="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
-      <formula>IF($A18="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>IF($A18="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B20">
-    <cfRule type="expression" dxfId="57" priority="49">
-      <formula>IF($A19="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
-      <formula>IF($A19="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="51">
-      <formula>IF($A19="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:P20">
-    <cfRule type="expression" dxfId="53" priority="45">
-      <formula>IF($A19="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="46">
-      <formula>IF($A19="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="47">
-      <formula>IF($A19="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:P20">
-    <cfRule type="expression" dxfId="49" priority="41">
-      <formula>IF($A19="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42">
-      <formula>IF($A19="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="43">
-      <formula>IF($A19="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
-      <formula>IF(#REF!=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:O3">
-    <cfRule type="expression" dxfId="45" priority="25">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="26">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="27">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="28">
-      <formula>IF($B3=1,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:W3">
-    <cfRule type="expression" dxfId="41" priority="21">
-      <formula>IF($A3="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="22">
-      <formula>IF($A3="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
-      <formula>IF($A3="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="24">
-      <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:Q6">
@@ -26098,18 +25259,110 @@
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34 H34:L34">
-    <cfRule type="expression" dxfId="29" priority="9">
-      <formula>IF($A34="Esforço total atribuído",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>IF($A34="Disponibilidade restante",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
-      <formula>IF($A34="Disponibil.total",1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
+  <conditionalFormatting sqref="L13:P16 L18 L20">
+    <cfRule type="expression" dxfId="29" priority="89">
+      <formula>IF($A13="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="90">
+      <formula>IF($A13="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="91">
+      <formula>IF($A13="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="92">
       <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:P36">
+    <cfRule type="expression" dxfId="25" priority="81">
+      <formula>IF($A36="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="82">
+      <formula>IF($A36="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="83">
+      <formula>IF($A36="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="84">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N12">
+    <cfRule type="expression" dxfId="21" priority="173">
+      <formula>IF($A12="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="174">
+      <formula>IF($A12="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="175">
+      <formula>IF($A12="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="176">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:P18">
+    <cfRule type="expression" dxfId="17" priority="61">
+      <formula>IF($A18="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="62">
+      <formula>IF($A18="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="63">
+      <formula>IF($A18="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:P20">
+    <cfRule type="expression" dxfId="14" priority="44">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="45">
+      <formula>IF($A18="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="46">
+      <formula>IF($A18="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="47">
+      <formula>IF($A18="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:P20">
+    <cfRule type="expression" dxfId="10" priority="41">
+      <formula>IF($A19="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="42">
+      <formula>IF($A19="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="43">
+      <formula>IF($A19="Disponibil.total",1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="expression" dxfId="7" priority="145">
+      <formula>IF($A21="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="146">
+      <formula>IF($A21="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="147">
+      <formula>IF($A21="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="148">
+      <formula>IF(#REF!=1,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:W3">
+    <cfRule type="expression" dxfId="3" priority="21">
+      <formula>IF($A3="Esforço total atribuído",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="22">
+      <formula>IF($A3="Disponibilidade restante",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="23">
+      <formula>IF($A3="Disponibil.total",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -26121,17 +25374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055299C8A5E56DF42BB3A496FAB31A3CA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f48546ee30a9c08b8c56cc99cae99613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="886f8626-7949-4fe5-8403-a629ca357b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da67acbd85d4947d1135fd4f9dd5422" ns2:_="">
     <xsd:import namespace="886f8626-7949-4fe5-8403-a629ca357b95"/>
@@ -26275,31 +25517,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790518B7-6307-4320-A86D-39C8BAC5E03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26317,6 +25546,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{886666a6-a8d2-4604-a002-95b622cb7e18}" enabled="0" method="" siteId="{886666a6-a8d2-4604-a002-95b622cb7e18}" removed="1"/>
